--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-08.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="180">
   <si>
     <t>League</t>
   </si>
@@ -554,15 +554,6 @@
   </si>
   <si>
     <t>Macara</t>
-  </si>
-  <si>
-    <t>33157969</t>
-  </si>
-  <si>
-    <t>1.226994307</t>
-  </si>
-  <si>
-    <t>1.226994352</t>
   </si>
 </sst>
 </file>
@@ -1140,94 +1131,94 @@
         <v>143</v>
       </c>
       <c r="F2">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="G2">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
       <c r="H2">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="I2">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="J2">
         <v>3.25</v>
       </c>
       <c r="K2">
-        <v>5.7</v>
+        <v>3.95</v>
       </c>
       <c r="L2">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="M2">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="N2">
-        <v>1.84</v>
+        <v>2.28</v>
       </c>
       <c r="O2">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="P2">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="Q2">
-        <v>1000</v>
+        <v>2.44</v>
       </c>
       <c r="R2">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="S2">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="T2">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="U2">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="V2">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="W2">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="X2">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="Y2">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z2">
         <v>1.03</v>
       </c>
       <c r="AA2">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB2">
-        <v>1.03</v>
+        <v>4.8</v>
       </c>
       <c r="AC2">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD2">
-        <v>1.03</v>
+        <v>1.47</v>
       </c>
       <c r="AE2">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF2">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AG2">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH2">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="AI2">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AJ2">
         <v>1.03</v>
@@ -1236,13 +1227,13 @@
         <v>1000</v>
       </c>
       <c r="AL2">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="AM2">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AN2">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="AO2">
         <v>1000</v>
@@ -1278,7 +1269,7 @@
         <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BA2">
         <v>1000</v>
@@ -1287,10 +1278,10 @@
         <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="BD2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1343,154 +1334,154 @@
         <v>1.32</v>
       </c>
       <c r="H3">
-        <v>1.05</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="J3">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="K3">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="L3">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="M3">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="N3">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="O3">
         <v>1.81</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3">
         <v>33160524</v>
@@ -1534,160 +1525,160 @@
         <v>145</v>
       </c>
       <c r="F4">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G4">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H4">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I4">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J4">
         <v>2.84</v>
       </c>
       <c r="K4">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L4">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M4">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="N4">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF4">
         <v>33154671</v>
@@ -1734,16 +1725,16 @@
         <v>1.05</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="H5">
         <v>1.05</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J5">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="K5">
         <v>1000</v>
@@ -1752,139 +1743,139 @@
         <v>1.27</v>
       </c>
       <c r="M5">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="N5">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="O5">
         <v>4.6</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5">
         <v>33166291</v>
@@ -1931,157 +1922,157 @@
         <v>8.6</v>
       </c>
       <c r="G6">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H6">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I6">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="J6">
         <v>4.4</v>
       </c>
       <c r="K6">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L6">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="M6">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="N6">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O6">
-        <v>2.46</v>
+        <v>2.88</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF6">
         <v>33166200</v>
@@ -2125,160 +2116,160 @@
         <v>148</v>
       </c>
       <c r="F7">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="G7">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I7">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J7">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L7">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="O7">
         <v>2.3</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF7">
         <v>33157510</v>
@@ -2325,25 +2316,25 @@
         <v>1.67</v>
       </c>
       <c r="G8">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H8">
-        <v>1.05</v>
+        <v>5.1</v>
       </c>
       <c r="I8">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="K8">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L8">
         <v>1.27</v>
       </c>
       <c r="M8">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="N8">
         <v>2.1</v>
@@ -2352,130 +2343,130 @@
         <v>4.6</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8">
         <v>33157911</v>
@@ -2519,160 +2510,160 @@
         <v>150</v>
       </c>
       <c r="F9">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="G9">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="H9">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I9">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K9">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="L9">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="M9">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="N9">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>2.36</v>
+        <v>1.97</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF9">
         <v>33157727</v>
@@ -2719,7 +2710,7 @@
         <v>1.05</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="H10">
         <v>1.05</v>
@@ -2728,7 +2719,7 @@
         <v>1000</v>
       </c>
       <c r="J10">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="K10">
         <v>1000</v>
@@ -2919,28 +2910,28 @@
         <v>4.2</v>
       </c>
       <c r="H11">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I11">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J11">
         <v>2.9</v>
       </c>
       <c r="K11">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L11">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M11">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="N11">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3110,25 +3101,25 @@
         <v>153</v>
       </c>
       <c r="F12">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G12">
         <v>1.57</v>
       </c>
       <c r="H12">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I12">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J12">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="K12">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="L12">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="M12">
         <v>2.48</v>
@@ -3137,7 +3128,7 @@
         <v>1.68</v>
       </c>
       <c r="O12">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3307,157 +3298,157 @@
         <v>154</v>
       </c>
       <c r="F13">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G13">
         <v>2.44</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J13">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K13">
         <v>3.85</v>
       </c>
       <c r="L13">
-        <v>1.27</v>
+        <v>2.08</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>2.3</v>
       </c>
       <c r="N13">
-        <v>1.05</v>
+        <v>1.77</v>
       </c>
       <c r="O13">
-        <v>4.6</v>
+        <v>1.93</v>
       </c>
       <c r="P13">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="Q13">
-        <v>1000</v>
+        <v>1.79</v>
       </c>
       <c r="R13">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="S13">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="T13">
-        <v>1.46</v>
+        <v>13.5</v>
       </c>
       <c r="U13">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="V13">
-        <v>2.36</v>
+        <v>13</v>
       </c>
       <c r="W13">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="X13">
-        <v>2.58</v>
+        <v>20</v>
       </c>
       <c r="Y13">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z13">
-        <v>1.01</v>
+        <v>29</v>
       </c>
       <c r="AA13">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB13">
-        <v>2.72</v>
+        <v>10</v>
       </c>
       <c r="AC13">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD13">
-        <v>3.55</v>
+        <v>7.6</v>
       </c>
       <c r="AE13">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AF13">
-        <v>3.85</v>
+        <v>11</v>
       </c>
       <c r="AG13">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH13">
-        <v>5.8</v>
+        <v>21</v>
       </c>
       <c r="AI13">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ13">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AK13">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL13">
-        <v>3.3</v>
+        <v>9.6</v>
       </c>
       <c r="AM13">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AN13">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="AO13">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AP13">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AQ13">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AR13">
-        <v>4.1</v>
+        <v>22</v>
       </c>
       <c r="AS13">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AT13">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="AU13">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AV13">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="AW13">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AX13">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="AY13">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AZ13">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BA13">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="BB13">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BC13">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="BD13">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -3504,22 +3495,22 @@
         <v>155</v>
       </c>
       <c r="F14">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G14">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="H14">
         <v>3.1</v>
       </c>
       <c r="I14">
-        <v>990</v>
+        <v>4.3</v>
       </c>
       <c r="J14">
-        <v>3.15</v>
+        <v>2.68</v>
       </c>
       <c r="K14">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L14">
         <v>1.83</v>
@@ -3898,16 +3889,16 @@
         <v>157</v>
       </c>
       <c r="F16">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="G16">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="H16">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I16">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J16">
         <v>3.45</v>
@@ -3919,10 +3910,10 @@
         <v>2.08</v>
       </c>
       <c r="M16">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="N16">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
         <v>1.93</v>
@@ -4098,13 +4089,13 @@
         <v>2.26</v>
       </c>
       <c r="G17">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J17">
         <v>3.5</v>
@@ -4113,16 +4104,16 @@
         <v>4.6</v>
       </c>
       <c r="L17">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="M17">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N17">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="O17">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -4292,22 +4283,22 @@
         <v>159</v>
       </c>
       <c r="F18">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G18">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H18">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I18">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>4.1</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L18">
         <v>2.38</v>
@@ -4319,7 +4310,7 @@
         <v>1.62</v>
       </c>
       <c r="O18">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -4489,34 +4480,34 @@
         <v>160</v>
       </c>
       <c r="F19">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G19">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H19">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I19">
         <v>980</v>
       </c>
       <c r="J19">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="L19">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="M19">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="N19">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="O19">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4692,25 +4683,25 @@
         <v>2.62</v>
       </c>
       <c r="H20">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="I20">
         <v>5</v>
       </c>
       <c r="J20">
-        <v>2.62</v>
+        <v>2.94</v>
       </c>
       <c r="K20">
-        <v>4.1</v>
+        <v>330</v>
       </c>
       <c r="L20">
         <v>1.48</v>
       </c>
       <c r="M20">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="N20">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O20">
         <v>4.6</v>
@@ -4886,7 +4877,7 @@
         <v>1.8</v>
       </c>
       <c r="G21">
-        <v>980</v>
+        <v>2.2</v>
       </c>
       <c r="H21">
         <v>3.45</v>
@@ -4901,16 +4892,16 @@
         <v>980</v>
       </c>
       <c r="L21">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M21">
-        <v>990</v>
+        <v>2.36</v>
       </c>
       <c r="N21">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="O21">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -5083,22 +5074,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G22">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="H22">
         <v>1.33</v>
       </c>
       <c r="I22">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="J22">
         <v>5.2</v>
       </c>
       <c r="K22">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="L22">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="M22">
         <v>2.7</v>
@@ -5107,7 +5098,7 @@
         <v>1.59</v>
       </c>
       <c r="O22">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -5280,31 +5271,31 @@
         <v>1.71</v>
       </c>
       <c r="G23">
-        <v>2.2</v>
+        <v>480</v>
       </c>
       <c r="H23">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I23">
-        <v>55</v>
+        <v>870</v>
       </c>
       <c r="J23">
         <v>3.55</v>
       </c>
       <c r="K23">
-        <v>14</v>
+        <v>6.6</v>
       </c>
       <c r="L23">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="M23">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N23">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="O23">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -5477,19 +5468,19 @@
         <v>2.52</v>
       </c>
       <c r="G24">
+        <v>2.94</v>
+      </c>
+      <c r="H24">
+        <v>2.42</v>
+      </c>
+      <c r="I24">
         <v>3.05</v>
-      </c>
-      <c r="H24">
-        <v>2.54</v>
-      </c>
-      <c r="I24">
-        <v>3.1</v>
       </c>
       <c r="J24">
         <v>3.6</v>
       </c>
       <c r="K24">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="L24">
         <v>2.28</v>
@@ -5671,7 +5662,7 @@
         <v>166</v>
       </c>
       <c r="F25">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G25">
         <v>4.6</v>
@@ -5683,19 +5674,19 @@
         <v>2.56</v>
       </c>
       <c r="J25">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K25">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L25">
         <v>1.27</v>
       </c>
       <c r="M25">
-        <v>990</v>
+        <v>2.22</v>
       </c>
       <c r="N25">
-        <v>1.07</v>
+        <v>1.83</v>
       </c>
       <c r="O25">
         <v>4.6</v>
@@ -5713,115 +5704,115 @@
         <v>1000</v>
       </c>
       <c r="T25">
-        <v>3.05</v>
+        <v>1.13</v>
       </c>
       <c r="U25">
         <v>980</v>
       </c>
       <c r="V25">
-        <v>3</v>
+        <v>1.13</v>
       </c>
       <c r="W25">
         <v>980</v>
       </c>
       <c r="X25">
-        <v>3.65</v>
+        <v>1.22</v>
       </c>
       <c r="Y25">
         <v>980</v>
       </c>
       <c r="Z25">
-        <v>4.2</v>
+        <v>1.11</v>
       </c>
       <c r="AA25">
         <v>980</v>
       </c>
       <c r="AB25">
-        <v>3.35</v>
+        <v>1.13</v>
       </c>
       <c r="AC25">
         <v>980</v>
       </c>
       <c r="AD25">
-        <v>3.05</v>
+        <v>1.13</v>
       </c>
       <c r="AE25">
         <v>980</v>
       </c>
       <c r="AF25">
-        <v>3.65</v>
+        <v>1.22</v>
       </c>
       <c r="AG25">
         <v>980</v>
       </c>
       <c r="AH25">
-        <v>3.3</v>
+        <v>1.13</v>
       </c>
       <c r="AI25">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ25">
-        <v>4</v>
+        <v>1.26</v>
       </c>
       <c r="AK25">
         <v>980</v>
       </c>
       <c r="AL25">
-        <v>3.9</v>
+        <v>1.24</v>
       </c>
       <c r="AM25">
         <v>980</v>
       </c>
       <c r="AN25">
-        <v>4.2</v>
+        <v>1.13</v>
       </c>
       <c r="AO25">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP25">
-        <v>3.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ25">
         <v>1000</v>
       </c>
       <c r="AR25">
-        <v>3.15</v>
+        <v>1.13</v>
       </c>
       <c r="AS25">
         <v>1000</v>
       </c>
       <c r="AT25">
-        <v>3.25</v>
+        <v>1.13</v>
       </c>
       <c r="AU25">
         <v>1000</v>
       </c>
       <c r="AV25">
-        <v>3.2</v>
+        <v>1.13</v>
       </c>
       <c r="AW25">
         <v>1000</v>
       </c>
       <c r="AX25">
-        <v>4.6</v>
+        <v>1.13</v>
       </c>
       <c r="AY25">
         <v>1000</v>
       </c>
       <c r="AZ25">
-        <v>3.25</v>
+        <v>1.13</v>
       </c>
       <c r="BA25">
         <v>1000</v>
       </c>
       <c r="BB25">
-        <v>3.25</v>
+        <v>1.13</v>
       </c>
       <c r="BC25">
         <v>1000</v>
       </c>
       <c r="BD25">
-        <v>1.85</v>
+        <v>1.13</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -5868,13 +5859,13 @@
         <v>167</v>
       </c>
       <c r="F26">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="G26">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I26">
         <v>6.6</v>
@@ -6662,31 +6653,31 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H30">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I30">
         <v>1.47</v>
       </c>
       <c r="J30">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L30">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="M30">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="N30">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="O30">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="P30">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q30">
         <v>2.12</v>
@@ -6698,7 +6689,7 @@
         <v>1.97</v>
       </c>
       <c r="T30">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U30">
         <v>18</v>
@@ -6719,7 +6710,7 @@
         <v>11</v>
       </c>
       <c r="AA30">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB30">
         <v>24</v>
@@ -6758,13 +6749,13 @@
         <v>34</v>
       </c>
       <c r="AN30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO30">
         <v>29</v>
       </c>
       <c r="AP30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ30">
         <v>40</v>
@@ -6782,7 +6773,7 @@
         <v>140</v>
       </c>
       <c r="AV30">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AW30">
         <v>130</v>
@@ -6794,19 +6785,19 @@
         <v>170</v>
       </c>
       <c r="AZ30">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BA30">
         <v>170</v>
       </c>
       <c r="BB30">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="BC30">
         <v>6.8</v>
       </c>
       <c r="BD30">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -6859,7 +6850,7 @@
         <v>1.51</v>
       </c>
       <c r="H31">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I31">
         <v>10.5</v>
@@ -7247,34 +7238,34 @@
         <v>174</v>
       </c>
       <c r="F33">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I33">
         <v>3.25</v>
       </c>
       <c r="J33">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K33">
         <v>3.3</v>
       </c>
       <c r="L33">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="M33">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="N33">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="O33">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -7444,34 +7435,34 @@
         <v>175</v>
       </c>
       <c r="F34">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="G34">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="H34">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I34">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J34">
-        <v>2.36</v>
+        <v>3.9</v>
       </c>
       <c r="K34">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="L34">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="M34">
-        <v>2.44</v>
+        <v>2.82</v>
       </c>
       <c r="N34">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O34">
-        <v>2.24</v>
+        <v>2.66</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -7880,7 +7871,7 @@
         <v>1.91</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U36">
         <v>980</v>
@@ -7898,19 +7889,19 @@
         <v>980</v>
       </c>
       <c r="Z36">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="AA36">
         <v>1000</v>
       </c>
       <c r="AB36">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="AC36">
         <v>980</v>
       </c>
       <c r="AD36">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AE36">
         <v>980</v>
@@ -7922,7 +7913,7 @@
         <v>980</v>
       </c>
       <c r="AH36">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AI36">
         <v>1000</v>
@@ -8038,16 +8029,16 @@
         <v>1.61</v>
       </c>
       <c r="G37">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H37">
         <v>6.4</v>
       </c>
       <c r="I37">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J37">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K37">
         <v>4.4</v>
@@ -8077,7 +8068,7 @@
         <v>1.72</v>
       </c>
       <c r="T37">
-        <v>1.51</v>
+        <v>4.1</v>
       </c>
       <c r="U37">
         <v>980</v>
@@ -8089,13 +8080,13 @@
         <v>980</v>
       </c>
       <c r="X37">
+        <v>1.24</v>
+      </c>
+      <c r="Y37">
+        <v>1000</v>
+      </c>
+      <c r="Z37">
         <v>1.1</v>
-      </c>
-      <c r="Y37">
-        <v>1000</v>
-      </c>
-      <c r="Z37">
-        <v>3.85</v>
       </c>
       <c r="AA37">
         <v>1000</v>
@@ -8113,13 +8104,13 @@
         <v>980</v>
       </c>
       <c r="AF37">
-        <v>5.9</v>
+        <v>1.58</v>
       </c>
       <c r="AG37">
         <v>1000</v>
       </c>
       <c r="AH37">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="AI37">
         <v>1000</v>
@@ -8137,37 +8128,37 @@
         <v>980</v>
       </c>
       <c r="AN37">
-        <v>5.9</v>
+        <v>1.58</v>
       </c>
       <c r="AO37">
         <v>1000</v>
       </c>
       <c r="AP37">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="AQ37">
         <v>1000</v>
       </c>
       <c r="AR37">
-        <v>3.85</v>
+        <v>1.61</v>
       </c>
       <c r="AS37">
         <v>980</v>
       </c>
       <c r="AT37">
-        <v>5.4</v>
+        <v>1.61</v>
       </c>
       <c r="AU37">
         <v>980</v>
       </c>
       <c r="AV37">
-        <v>6.8</v>
+        <v>1.24</v>
       </c>
       <c r="AW37">
         <v>1000</v>
       </c>
       <c r="AX37">
-        <v>7.4</v>
+        <v>1.1</v>
       </c>
       <c r="AY37">
         <v>1000</v>
@@ -8185,7 +8176,7 @@
         <v>1000</v>
       </c>
       <c r="BD37">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="BE37">
         <v>1000</v>
@@ -8232,34 +8223,34 @@
         <v>179</v>
       </c>
       <c r="F38">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="G38">
-        <v>5.1</v>
+        <v>980</v>
       </c>
       <c r="H38">
+        <v>1.86</v>
+      </c>
+      <c r="I38">
+        <v>2.9</v>
+      </c>
+      <c r="J38">
+        <v>3.05</v>
+      </c>
+      <c r="K38">
+        <v>330</v>
+      </c>
+      <c r="L38">
+        <v>1.69</v>
+      </c>
+      <c r="M38">
+        <v>1.95</v>
+      </c>
+      <c r="N38">
         <v>2.04</v>
       </c>
-      <c r="I38">
-        <v>3.75</v>
-      </c>
-      <c r="J38">
-        <v>3.1</v>
-      </c>
-      <c r="K38">
-        <v>12.5</v>
-      </c>
-      <c r="L38">
-        <v>1.47</v>
-      </c>
-      <c r="M38">
-        <v>2.48</v>
-      </c>
-      <c r="N38">
-        <v>1.67</v>
-      </c>
       <c r="O38">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -8387,8 +8378,8 @@
       <c r="BE38">
         <v>0</v>
       </c>
-      <c r="BF38" t="s">
-        <v>180</v>
+      <c r="BF38">
+        <v>33157969</v>
       </c>
       <c r="BG38">
         <v>13638535</v>
@@ -8399,11 +8390,11 @@
       <c r="BI38">
         <v>58805</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>181</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>182</v>
+      <c r="BJ38">
+        <v>1.226994307</v>
+      </c>
+      <c r="BK38">
+        <v>1.226994352</v>
       </c>
       <c r="BL38">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-08.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="179">
   <si>
     <t>League</t>
   </si>
@@ -320,9 +320,6 @@
   </si>
   <si>
     <t>16:15:00</t>
-  </si>
-  <si>
-    <t>16:30:00</t>
   </si>
   <si>
     <t>17:00:00</t>
@@ -1125,10 +1122,10 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>4.7</v>
@@ -1137,13 +1134,13 @@
         <v>6.4</v>
       </c>
       <c r="H2">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I2">
         <v>2.02</v>
       </c>
       <c r="J2">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K2">
         <v>3.95</v>
@@ -1164,7 +1161,7 @@
         <v>2.04</v>
       </c>
       <c r="Q2">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R2">
         <v>1.69</v>
@@ -1322,10 +1319,10 @@
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3">
         <v>1.27</v>
@@ -1343,10 +1340,10 @@
         <v>5.2</v>
       </c>
       <c r="K3">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L3">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M3">
         <v>2.6</v>
@@ -1358,7 +1355,7 @@
         <v>1.81</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q3">
         <v>2.72</v>
@@ -1367,28 +1364,28 @@
         <v>1.58</v>
       </c>
       <c r="S3">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T3">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="U3">
         <v>27</v>
       </c>
       <c r="V3">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="W3">
         <v>50</v>
       </c>
       <c r="X3">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y3">
         <v>1000</v>
       </c>
       <c r="Z3">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AA3">
         <v>1000</v>
@@ -1406,13 +1403,13 @@
         <v>18</v>
       </c>
       <c r="AF3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG3">
         <v>65</v>
       </c>
       <c r="AH3">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AI3">
         <v>1000</v>
@@ -1421,7 +1418,7 @@
         <v>5.7</v>
       </c>
       <c r="AK3">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AL3">
         <v>8.199999999999999</v>
@@ -1436,7 +1433,7 @@
         <v>46</v>
       </c>
       <c r="AP3">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AQ3">
         <v>1000</v>
@@ -1454,31 +1451,31 @@
         <v>18</v>
       </c>
       <c r="AV3">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AW3">
         <v>55</v>
       </c>
       <c r="AX3">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AY3">
         <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="BA3">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BB3">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BC3">
         <v>1000</v>
       </c>
       <c r="BD3">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1519,40 +1516,40 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="G4">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H4">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I4">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J4">
         <v>2.84</v>
       </c>
       <c r="K4">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L4">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="M4">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="N4">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="P4">
         <v>1.01</v>
@@ -1567,10 +1564,10 @@
         <v>1000</v>
       </c>
       <c r="T4">
-        <v>7.6</v>
+        <v>1.03</v>
       </c>
       <c r="U4">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V4">
         <v>1.08</v>
@@ -1657,7 +1654,7 @@
         <v>1000</v>
       </c>
       <c r="AX4">
-        <v>1.08</v>
+        <v>16</v>
       </c>
       <c r="AY4">
         <v>1000</v>
@@ -1716,22 +1713,22 @@
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5">
         <v>1.05</v>
       </c>
       <c r="G5">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="H5">
         <v>1.05</v>
       </c>
       <c r="I5">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="J5">
         <v>1.2</v>
@@ -1764,31 +1761,31 @@
         <v>1000</v>
       </c>
       <c r="T5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U5">
         <v>1000</v>
       </c>
       <c r="V5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W5">
         <v>1000</v>
       </c>
       <c r="X5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="Y5">
         <v>1000</v>
       </c>
       <c r="Z5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA5">
         <v>1000</v>
       </c>
       <c r="AB5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AC5">
         <v>1000</v>
@@ -1800,61 +1797,61 @@
         <v>1000</v>
       </c>
       <c r="AF5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG5">
         <v>1000</v>
       </c>
       <c r="AH5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AI5">
         <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AK5">
         <v>1000</v>
       </c>
       <c r="AL5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AM5">
         <v>1000</v>
       </c>
       <c r="AN5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AO5">
         <v>1000</v>
       </c>
       <c r="AP5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ5">
         <v>1000</v>
       </c>
       <c r="AR5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS5">
         <v>1000</v>
       </c>
       <c r="AT5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU5">
         <v>1000</v>
       </c>
       <c r="AV5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW5">
         <v>1000</v>
       </c>
       <c r="AX5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY5">
         <v>1000</v>
@@ -1913,40 +1910,40 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G6">
         <v>980</v>
       </c>
       <c r="H6">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I6">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="J6">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K6">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L6">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="M6">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="O6">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P6">
         <v>1.01</v>
@@ -1961,7 +1958,7 @@
         <v>1000</v>
       </c>
       <c r="T6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U6">
         <v>1000</v>
@@ -1979,79 +1976,79 @@
         <v>1000</v>
       </c>
       <c r="Z6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA6">
         <v>1000</v>
       </c>
       <c r="AB6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AC6">
         <v>1000</v>
       </c>
       <c r="AD6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AE6">
         <v>1000</v>
       </c>
       <c r="AF6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG6">
         <v>1000</v>
       </c>
       <c r="AH6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AI6">
         <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AK6">
         <v>1000</v>
       </c>
       <c r="AL6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AM6">
         <v>1000</v>
       </c>
       <c r="AN6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AO6">
         <v>1000</v>
       </c>
       <c r="AP6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ6">
         <v>1000</v>
       </c>
       <c r="AR6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS6">
         <v>1000</v>
       </c>
       <c r="AT6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU6">
         <v>1000</v>
       </c>
       <c r="AV6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW6">
         <v>1000</v>
       </c>
       <c r="AX6">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY6">
         <v>1000</v>
@@ -2110,19 +2107,19 @@
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G7">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H7">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>3.6</v>
@@ -2137,10 +2134,10 @@
         <v>1.76</v>
       </c>
       <c r="M7">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="N7">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="O7">
         <v>2.3</v>
@@ -2155,7 +2152,7 @@
         <v>1.86</v>
       </c>
       <c r="S7">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T7">
         <v>9</v>
@@ -2170,13 +2167,13 @@
         <v>14.5</v>
       </c>
       <c r="X7">
-        <v>1.03</v>
+        <v>3.7</v>
       </c>
       <c r="Y7">
         <v>26</v>
       </c>
       <c r="Z7">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AA7">
         <v>70</v>
@@ -2200,7 +2197,7 @@
         <v>17</v>
       </c>
       <c r="AH7">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AI7">
         <v>48</v>
@@ -2224,49 +2221,49 @@
         <v>23</v>
       </c>
       <c r="AP7">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AQ7">
         <v>65</v>
       </c>
       <c r="AR7">
-        <v>1.03</v>
+        <v>3.95</v>
       </c>
       <c r="AS7">
         <v>42</v>
       </c>
       <c r="AT7">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="AU7">
         <v>34</v>
       </c>
       <c r="AV7">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AW7">
         <v>55</v>
       </c>
       <c r="AX7">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AY7">
         <v>140</v>
       </c>
       <c r="AZ7">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="BA7">
         <v>28</v>
       </c>
       <c r="BB7">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BC7">
         <v>46</v>
       </c>
       <c r="BD7">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2307,55 +2304,55 @@
         <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>1.67</v>
       </c>
       <c r="G8">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H8">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J8">
-        <v>3.05</v>
+        <v>1.2</v>
       </c>
       <c r="K8">
         <v>4.8</v>
       </c>
       <c r="L8">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="M8">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="N8">
         <v>2.1</v>
       </c>
       <c r="O8">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="P8">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="Q8">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R8">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="S8">
         <v>1.99</v>
       </c>
       <c r="T8">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="U8">
         <v>12.5</v>
@@ -2364,10 +2361,10 @@
         <v>1.03</v>
       </c>
       <c r="W8">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X8">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Y8">
         <v>1000</v>
@@ -2385,7 +2382,7 @@
         <v>7.8</v>
       </c>
       <c r="AD8">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AE8">
         <v>9.4</v>
@@ -2409,7 +2406,7 @@
         <v>10.5</v>
       </c>
       <c r="AL8">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="AM8">
         <v>11.5</v>
@@ -2504,37 +2501,37 @@
         <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9">
         <v>1.94</v>
       </c>
       <c r="G9">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H9">
+        <v>3.45</v>
+      </c>
+      <c r="I9">
+        <v>4.6</v>
+      </c>
+      <c r="J9">
         <v>3.4</v>
       </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>3.5</v>
-      </c>
       <c r="K9">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L9">
         <v>2.04</v>
       </c>
       <c r="M9">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="O9">
         <v>1.97</v>
@@ -2549,106 +2546,106 @@
         <v>2.04</v>
       </c>
       <c r="S9">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T9">
-        <v>12.5</v>
+        <v>1.33</v>
       </c>
       <c r="U9">
         <v>22</v>
       </c>
       <c r="V9">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W9">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="X9">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="Y9">
         <v>1000</v>
       </c>
       <c r="Z9">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AA9">
         <v>1000</v>
       </c>
       <c r="AB9">
-        <v>8.4</v>
+        <v>3.25</v>
       </c>
       <c r="AC9">
         <v>14</v>
       </c>
       <c r="AD9">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="AE9">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AF9">
-        <v>11</v>
+        <v>1.62</v>
       </c>
       <c r="AG9">
         <v>19</v>
       </c>
       <c r="AH9">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AI9">
         <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="AK9">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL9">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="AM9">
         <v>13</v>
       </c>
       <c r="AN9">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="AO9">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AP9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ9">
         <v>1000</v>
       </c>
       <c r="AR9">
-        <v>18.5</v>
+        <v>1.1</v>
       </c>
       <c r="AS9">
         <v>32</v>
       </c>
       <c r="AT9">
-        <v>15</v>
+        <v>1.18</v>
       </c>
       <c r="AU9">
         <v>25</v>
       </c>
       <c r="AV9">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AW9">
         <v>1000</v>
       </c>
       <c r="AX9">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AY9">
         <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="BA9">
         <v>15.5</v>
@@ -2660,7 +2657,7 @@
         <v>1000</v>
       </c>
       <c r="BD9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2701,16 +2698,16 @@
         <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10">
         <v>1.05</v>
       </c>
       <c r="G10">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="H10">
         <v>1.05</v>
@@ -2728,139 +2725,139 @@
         <v>1.27</v>
       </c>
       <c r="M10">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="N10">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="O10">
         <v>4.6</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF10">
         <v>33166302</v>
@@ -2898,166 +2895,166 @@
         <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H11">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I11">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="J11">
         <v>2.9</v>
       </c>
       <c r="K11">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L11">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="M11">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="N11">
         <v>2.14</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF11">
         <v>33154668</v>
@@ -3095,25 +3092,25 @@
         <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G12">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H12">
         <v>6.2</v>
       </c>
       <c r="I12">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J12">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -3131,130 +3128,130 @@
         <v>1.85</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AZ12">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BE12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF12">
         <v>33098580</v>
@@ -3292,166 +3289,166 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13">
+        <v>2.28</v>
+      </c>
+      <c r="G13">
+        <v>2.36</v>
+      </c>
+      <c r="H13">
+        <v>3.15</v>
+      </c>
+      <c r="I13">
+        <v>3.35</v>
+      </c>
+      <c r="J13">
+        <v>3.7</v>
+      </c>
+      <c r="K13">
+        <v>3.8</v>
+      </c>
+      <c r="L13">
+        <v>2.14</v>
+      </c>
+      <c r="M13">
         <v>2.26</v>
       </c>
-      <c r="G13">
-        <v>2.44</v>
-      </c>
-      <c r="H13">
-        <v>3.1</v>
-      </c>
-      <c r="I13">
-        <v>3.5</v>
-      </c>
-      <c r="J13">
-        <v>3.65</v>
-      </c>
-      <c r="K13">
-        <v>3.85</v>
-      </c>
-      <c r="L13">
-        <v>2.08</v>
-      </c>
-      <c r="M13">
-        <v>2.3</v>
-      </c>
       <c r="N13">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O13">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P13">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q13">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="R13">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="S13">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T13">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="U13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V13">
         <v>13</v>
       </c>
       <c r="W13">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="X13">
         <v>20</v>
       </c>
       <c r="Y13">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Z13">
         <v>29</v>
       </c>
       <c r="AA13">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AB13">
+        <v>11</v>
+      </c>
+      <c r="AC13">
+        <v>12.5</v>
+      </c>
+      <c r="AD13">
+        <v>7.8</v>
+      </c>
+      <c r="AE13">
+        <v>8.6</v>
+      </c>
+      <c r="AF13">
+        <v>12.5</v>
+      </c>
+      <c r="AG13">
+        <v>14</v>
+      </c>
+      <c r="AH13">
+        <v>28</v>
+      </c>
+      <c r="AI13">
+        <v>36</v>
+      </c>
+      <c r="AJ13">
+        <v>14</v>
+      </c>
+      <c r="AK13">
+        <v>16.5</v>
+      </c>
+      <c r="AL13">
         <v>10</v>
       </c>
-      <c r="AC13">
+      <c r="AM13">
+        <v>11.5</v>
+      </c>
+      <c r="AN13">
         <v>15</v>
       </c>
-      <c r="AD13">
-        <v>7.6</v>
-      </c>
-      <c r="AE13">
-        <v>10</v>
-      </c>
-      <c r="AF13">
-        <v>11</v>
-      </c>
-      <c r="AG13">
-        <v>19.5</v>
-      </c>
-      <c r="AH13">
-        <v>21</v>
-      </c>
-      <c r="AI13">
-        <v>55</v>
-      </c>
-      <c r="AJ13">
-        <v>12</v>
-      </c>
-      <c r="AK13">
-        <v>19.5</v>
-      </c>
-      <c r="AL13">
-        <v>9.6</v>
-      </c>
-      <c r="AM13">
-        <v>13</v>
-      </c>
-      <c r="AN13">
-        <v>14.5</v>
-      </c>
       <c r="AO13">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AP13">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AQ13">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AR13">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AS13">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AT13">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AU13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AV13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW13">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AX13">
         <v>34</v>
       </c>
       <c r="AY13">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AZ13">
         <v>12</v>
       </c>
       <c r="BA13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BB13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC13">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BD13">
-        <v>3.65</v>
+        <v>12.5</v>
       </c>
       <c r="BE13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF13">
         <v>33157481</v>
@@ -3489,166 +3486,166 @@
         <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G14">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="H14">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I14">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J14">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="K14">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L14">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="M14">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="N14">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O14">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF14">
         <v>33160202</v>
@@ -3686,178 +3683,178 @@
         <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="L15">
-        <v>1.28</v>
+        <v>1.92</v>
       </c>
       <c r="M15">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="O15">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF15">
         <v>33157811</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>7611327</v>
       </c>
       <c r="BH15">
-        <v>0</v>
+        <v>6563315</v>
       </c>
       <c r="BI15">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ15">
         <v>0</v>
@@ -3883,16 +3880,16 @@
         <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16">
         <v>2.36</v>
       </c>
       <c r="G16">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H16">
         <v>3.1</v>
@@ -3919,130 +3916,130 @@
         <v>1.93</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF16">
         <v>33157480</v>
@@ -4080,166 +4077,166 @@
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F17">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="G17">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I17">
+        <v>3.8</v>
+      </c>
+      <c r="J17">
+        <v>3.65</v>
+      </c>
+      <c r="K17">
+        <v>4.4</v>
+      </c>
+      <c r="L17">
+        <v>2.08</v>
+      </c>
+      <c r="M17">
+        <v>2.28</v>
+      </c>
+      <c r="N17">
+        <v>1.78</v>
+      </c>
+      <c r="O17">
+        <v>1.93</v>
+      </c>
+      <c r="P17">
+        <v>1.65</v>
+      </c>
+      <c r="Q17">
+        <v>1.99</v>
+      </c>
+      <c r="R17">
+        <v>2.12</v>
+      </c>
+      <c r="S17">
+        <v>2.72</v>
+      </c>
+      <c r="T17">
+        <v>11.5</v>
+      </c>
+      <c r="U17">
+        <v>19.5</v>
+      </c>
+      <c r="V17">
+        <v>10.5</v>
+      </c>
+      <c r="W17">
+        <v>17.5</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>29</v>
+      </c>
+      <c r="Z17">
+        <v>4.4</v>
+      </c>
+      <c r="AA17">
+        <v>70</v>
+      </c>
+      <c r="AB17">
+        <v>8.4</v>
+      </c>
+      <c r="AC17">
+        <v>13.5</v>
+      </c>
+      <c r="AD17">
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>9.4</v>
+      </c>
+      <c r="AF17">
+        <v>10.5</v>
+      </c>
+      <c r="AG17">
+        <v>17.5</v>
+      </c>
+      <c r="AH17">
+        <v>4.2</v>
+      </c>
+      <c r="AI17">
+        <v>44</v>
+      </c>
+      <c r="AJ17">
+        <v>11</v>
+      </c>
+      <c r="AK17">
+        <v>18</v>
+      </c>
+      <c r="AL17">
+        <v>8.4</v>
+      </c>
+      <c r="AM17">
+        <v>13.5</v>
+      </c>
+      <c r="AN17">
+        <v>12.5</v>
+      </c>
+      <c r="AO17">
+        <v>21</v>
+      </c>
+      <c r="AP17">
+        <v>4.3</v>
+      </c>
+      <c r="AQ17">
+        <v>55</v>
+      </c>
+      <c r="AR17">
+        <v>4.1</v>
+      </c>
+      <c r="AS17">
+        <v>36</v>
+      </c>
+      <c r="AT17">
+        <v>18.5</v>
+      </c>
+      <c r="AU17">
+        <v>28</v>
+      </c>
+      <c r="AV17">
+        <v>4.2</v>
+      </c>
+      <c r="AW17">
+        <v>44</v>
+      </c>
+      <c r="AX17">
+        <v>4.5</v>
+      </c>
+      <c r="AY17">
+        <v>110</v>
+      </c>
+      <c r="AZ17">
         <v>3.75</v>
       </c>
-      <c r="J17">
-        <v>3.5</v>
-      </c>
-      <c r="K17">
+      <c r="BA17">
+        <v>19</v>
+      </c>
+      <c r="BB17">
+        <v>4.2</v>
+      </c>
+      <c r="BC17">
+        <v>38</v>
+      </c>
+      <c r="BD17">
         <v>4.6</v>
       </c>
-      <c r="L17">
-        <v>1.69</v>
-      </c>
-      <c r="M17">
-        <v>3.15</v>
-      </c>
-      <c r="N17">
-        <v>1.47</v>
-      </c>
-      <c r="O17">
-        <v>2.44</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
       <c r="BE17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF17">
         <v>33162859</v>
@@ -4277,28 +4274,28 @@
         <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G18">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H18">
         <v>4.2</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J18">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K18">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L18">
         <v>2.38</v>
@@ -4313,130 +4310,130 @@
         <v>1.72</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF18">
         <v>33157471</v>
@@ -4474,166 +4471,166 @@
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G19">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="H19">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I19">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="J19">
         <v>4</v>
       </c>
       <c r="K19">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L19">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="M19">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="N19">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="O19">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF19">
         <v>33166198</v>
@@ -4671,166 +4668,166 @@
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20">
         <v>2.18</v>
       </c>
       <c r="G20">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H20">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="I20">
         <v>5</v>
       </c>
       <c r="J20">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K20">
-        <v>330</v>
+        <v>3.8</v>
       </c>
       <c r="L20">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M20">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="N20">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O20">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF20">
         <v>33157853</v>
@@ -4868,166 +4865,166 @@
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="G21">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H21">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I21">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="J21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K21">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="L21">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="M21">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="N21">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O21">
-        <v>3.95</v>
+        <v>1.97</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF21">
         <v>33163083</v>
@@ -5065,28 +5062,28 @@
         <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F22">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="I22">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J22">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K22">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L22">
         <v>2.46</v>
@@ -5101,130 +5098,130 @@
         <v>1.69</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF22">
         <v>33157964</v>
@@ -5262,166 +5259,166 @@
         <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F23">
         <v>1.71</v>
       </c>
       <c r="G23">
-        <v>480</v>
+        <v>1.77</v>
       </c>
       <c r="H23">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="I23">
-        <v>870</v>
+        <v>5.2</v>
       </c>
       <c r="J23">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="K23">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="L23">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>2.78</v>
       </c>
       <c r="N23">
         <v>1.56</v>
       </c>
       <c r="O23">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF23">
         <v>33157953</v>
@@ -5459,28 +5456,28 @@
         <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F24">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G24">
+        <v>2.76</v>
+      </c>
+      <c r="H24">
+        <v>2.68</v>
+      </c>
+      <c r="I24">
         <v>2.94</v>
       </c>
-      <c r="H24">
-        <v>2.42</v>
-      </c>
-      <c r="I24">
-        <v>3.05</v>
-      </c>
       <c r="J24">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K24">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="L24">
         <v>2.28</v>
@@ -5495,130 +5492,130 @@
         <v>1.79</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF24">
         <v>33157618</v>
@@ -5656,163 +5653,163 @@
         <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G25">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H25">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I25">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J25">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K25">
+        <v>3.1</v>
+      </c>
+      <c r="L25">
+        <v>1.41</v>
+      </c>
+      <c r="M25">
+        <v>1.54</v>
+      </c>
+      <c r="N25">
+        <v>2.86</v>
+      </c>
+      <c r="O25">
         <v>3.45</v>
       </c>
-      <c r="L25">
-        <v>1.27</v>
-      </c>
-      <c r="M25">
+      <c r="P25">
         <v>2.22</v>
       </c>
-      <c r="N25">
-        <v>1.83</v>
-      </c>
-      <c r="O25">
-        <v>4.6</v>
-      </c>
-      <c r="P25">
-        <v>1.01</v>
-      </c>
       <c r="Q25">
-        <v>1000</v>
+        <v>2.9</v>
       </c>
       <c r="R25">
-        <v>1.13</v>
+        <v>1.59</v>
       </c>
       <c r="S25">
-        <v>1000</v>
+        <v>1.81</v>
       </c>
       <c r="T25">
-        <v>1.13</v>
+        <v>6.2</v>
       </c>
       <c r="U25">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="V25">
-        <v>1.13</v>
+        <v>6</v>
       </c>
       <c r="W25">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="X25">
-        <v>1.22</v>
+        <v>5.6</v>
       </c>
       <c r="Y25">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Z25">
-        <v>1.11</v>
+        <v>7</v>
       </c>
       <c r="AA25">
         <v>980</v>
       </c>
       <c r="AB25">
-        <v>1.13</v>
+        <v>8.4</v>
       </c>
       <c r="AC25">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD25">
-        <v>1.13</v>
+        <v>6.4</v>
       </c>
       <c r="AE25">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AF25">
-        <v>1.22</v>
+        <v>11.5</v>
       </c>
       <c r="AG25">
         <v>980</v>
       </c>
       <c r="AH25">
-        <v>1.13</v>
+        <v>29</v>
       </c>
       <c r="AI25">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ25">
-        <v>1.26</v>
+        <v>20</v>
       </c>
       <c r="AK25">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL25">
-        <v>1.24</v>
+        <v>6.6</v>
       </c>
       <c r="AM25">
         <v>980</v>
       </c>
       <c r="AN25">
-        <v>1.13</v>
+        <v>7.6</v>
       </c>
       <c r="AO25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP25">
-        <v>1.13</v>
+        <v>8</v>
       </c>
       <c r="AQ25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR25">
-        <v>1.13</v>
+        <v>7.6</v>
       </c>
       <c r="AS25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT25">
-        <v>1.13</v>
+        <v>8</v>
       </c>
       <c r="AU25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV25">
-        <v>1.13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX25">
-        <v>1.13</v>
+        <v>7.8</v>
       </c>
       <c r="AY25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ25">
-        <v>1.13</v>
+        <v>7.8</v>
       </c>
       <c r="BA25">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB25">
-        <v>1.13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC25">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="BD25">
-        <v>1.13</v>
+        <v>8</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -5853,166 +5850,166 @@
         <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F26">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G26">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H26">
         <v>4.9</v>
       </c>
       <c r="I26">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J26">
         <v>3.5</v>
       </c>
       <c r="K26">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L26">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M26">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="N26">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O26">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BE26">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF26">
         <v>33158164</v>
@@ -6050,178 +6047,178 @@
         <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="L27">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M27">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="N27">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="O27">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF27">
         <v>33163102</v>
       </c>
       <c r="BG27">
-        <v>0</v>
+        <v>522054</v>
       </c>
       <c r="BH27">
-        <v>0</v>
+        <v>1270340</v>
       </c>
       <c r="BI27">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ27">
         <v>0</v>
@@ -6247,178 +6244,178 @@
         <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L28">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="M28">
-        <v>1000</v>
+        <v>1.84</v>
       </c>
       <c r="N28">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF28">
         <v>33162726</v>
       </c>
       <c r="BG28">
-        <v>0</v>
+        <v>4077808</v>
       </c>
       <c r="BH28">
-        <v>0</v>
+        <v>924269</v>
       </c>
       <c r="BI28">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ28">
         <v>0</v>
@@ -6444,178 +6441,178 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L29">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M29">
-        <v>1000</v>
+        <v>1.94</v>
       </c>
       <c r="N29">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="O29">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB29">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD29">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE29">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF29">
         <v>33162797</v>
       </c>
       <c r="BG29">
-        <v>0</v>
+        <v>201275</v>
       </c>
       <c r="BH29">
-        <v>0</v>
+        <v>522048</v>
       </c>
       <c r="BI29">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ29">
         <v>0</v>
@@ -6641,19 +6638,19 @@
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F30">
         <v>8.4</v>
       </c>
       <c r="G30">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H30">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="I30">
         <v>1.47</v>
@@ -6665,16 +6662,16 @@
         <v>5.1</v>
       </c>
       <c r="L30">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="M30">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="N30">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="O30">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P30">
         <v>2.04</v>
@@ -6683,7 +6680,7 @@
         <v>2.12</v>
       </c>
       <c r="R30">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
         <v>1.97</v>
@@ -6692,28 +6689,28 @@
         <v>16.5</v>
       </c>
       <c r="U30">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="V30">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="W30">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="X30">
         <v>7.6</v>
       </c>
       <c r="Y30">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z30">
         <v>11</v>
       </c>
       <c r="AA30">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC30">
         <v>29</v>
@@ -6722,43 +6719,43 @@
         <v>10</v>
       </c>
       <c r="AE30">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF30">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG30">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH30">
         <v>14</v>
       </c>
       <c r="AI30">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ30">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AK30">
         <v>75</v>
       </c>
       <c r="AL30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM30">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AN30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP30">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ30">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AR30">
         <v>100</v>
@@ -6773,7 +6770,7 @@
         <v>140</v>
       </c>
       <c r="AV30">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="AW30">
         <v>130</v>
@@ -6782,22 +6779,22 @@
         <v>100</v>
       </c>
       <c r="AY30">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AZ30">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="BA30">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="BB30">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BC30">
         <v>6.8</v>
       </c>
       <c r="BD30">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -6838,34 +6835,34 @@
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F31">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="G31">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H31">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="I31">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K31">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="L31">
         <v>2.18</v>
       </c>
       <c r="M31">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="N31">
         <v>1.69</v>
@@ -6874,130 +6871,130 @@
         <v>1.85</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AX31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AZ31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BB31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="BD31">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF31">
         <v>33158741</v>
@@ -7035,178 +7032,178 @@
         <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="L32">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="M32">
-        <v>1000</v>
+        <v>2.22</v>
       </c>
       <c r="N32">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="O32">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD32">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF32">
         <v>33162806</v>
       </c>
       <c r="BG32">
-        <v>0</v>
+        <v>201327</v>
       </c>
       <c r="BH32">
-        <v>0</v>
+        <v>4893589</v>
       </c>
       <c r="BI32">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ32">
         <v>0</v>
@@ -7232,19 +7229,19 @@
         <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F33">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I33">
         <v>3.25</v>
@@ -7256,7 +7253,7 @@
         <v>3.3</v>
       </c>
       <c r="L33">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M33">
         <v>1.76</v>
@@ -7265,133 +7262,133 @@
         <v>2.32</v>
       </c>
       <c r="O33">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AS33">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AT33">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AV33">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AW33">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AX33">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AY33">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AZ33">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BA33">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BB33">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BC33">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BD33">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BE33">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF33">
         <v>33157388</v>
@@ -7429,166 +7426,166 @@
         <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="G34">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H34">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I34">
         <v>980</v>
       </c>
       <c r="J34">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K34">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L34">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="M34">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="N34">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="O34">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB34">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD34">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE34">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF34">
         <v>33166481</v>
@@ -7623,181 +7620,181 @@
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L35">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="M35">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="O35">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT35">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AU35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX35">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AY35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE35">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF35">
         <v>33158323</v>
       </c>
       <c r="BG35">
-        <v>0</v>
+        <v>10778457</v>
       </c>
       <c r="BH35">
-        <v>0</v>
+        <v>27767097</v>
       </c>
       <c r="BI35">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ35">
         <v>0</v>
@@ -7820,19 +7817,19 @@
         <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F36">
         <v>1.82</v>
       </c>
       <c r="G36">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H36">
         <v>4.1</v>
@@ -7841,7 +7838,7 @@
         <v>6.2</v>
       </c>
       <c r="J36">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="K36">
         <v>980</v>
@@ -8017,13 +8014,13 @@
         <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F37">
         <v>1.61</v>
@@ -8068,19 +8065,19 @@
         <v>1.72</v>
       </c>
       <c r="T37">
-        <v>4.1</v>
+        <v>1.71</v>
       </c>
       <c r="U37">
         <v>980</v>
       </c>
       <c r="V37">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="W37">
         <v>980</v>
       </c>
       <c r="X37">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="Y37">
         <v>1000</v>
@@ -8104,7 +8101,7 @@
         <v>980</v>
       </c>
       <c r="AF37">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AG37">
         <v>1000</v>
@@ -8116,19 +8113,19 @@
         <v>1000</v>
       </c>
       <c r="AJ37">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="AK37">
         <v>980</v>
       </c>
       <c r="AL37">
-        <v>1.43</v>
+        <v>1.76</v>
       </c>
       <c r="AM37">
         <v>980</v>
       </c>
       <c r="AN37">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AO37">
         <v>1000</v>
@@ -8140,19 +8137,19 @@
         <v>1000</v>
       </c>
       <c r="AR37">
-        <v>1.61</v>
+        <v>2.04</v>
       </c>
       <c r="AS37">
         <v>980</v>
       </c>
       <c r="AT37">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="AU37">
         <v>980</v>
       </c>
       <c r="AV37">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AW37">
         <v>1000</v>
@@ -8214,28 +8211,28 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F38">
         <v>2.24</v>
       </c>
       <c r="G38">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="H38">
         <v>1.86</v>
       </c>
       <c r="I38">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J38">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K38">
         <v>330</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-08.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
   <si>
     <t>League</t>
   </si>
@@ -614,36 +614,6 @@
   </si>
   <si>
     <t>Macara</t>
-  </si>
-  <si>
-    <t>33157839</t>
-  </si>
-  <si>
-    <t>33174050</t>
-  </si>
-  <si>
-    <t>1.227305352</t>
-  </si>
-  <si>
-    <t>1.227299536</t>
-  </si>
-  <si>
-    <t>1.227305355</t>
-  </si>
-  <si>
-    <t>1.227299539</t>
-  </si>
-  <si>
-    <t>1.227305399</t>
-  </si>
-  <si>
-    <t>1.227299583</t>
-  </si>
-  <si>
-    <t>1.227305400</t>
-  </si>
-  <si>
-    <t>1.227299584</t>
   </si>
 </sst>
 </file>
@@ -2994,55 +2964,55 @@
         <v>165</v>
       </c>
       <c r="F11">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>870</v>
+        <v>2.52</v>
       </c>
       <c r="H11">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="I11">
-        <v>870</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11">
-        <v>1.2</v>
+        <v>2.58</v>
       </c>
       <c r="K11">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="M11">
-        <v>9.4</v>
+        <v>1.57</v>
       </c>
       <c r="N11">
-        <v>1.12</v>
+        <v>2.74</v>
       </c>
       <c r="O11">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="P11">
         <v>1.14</v>
       </c>
       <c r="Q11">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="R11">
         <v>1.14</v>
       </c>
       <c r="S11">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T11">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="U11">
         <v>980</v>
       </c>
       <c r="V11">
-        <v>9.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W11">
         <v>980</v>
@@ -3060,13 +3030,13 @@
         <v>1000</v>
       </c>
       <c r="AB11">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC11">
         <v>980</v>
       </c>
       <c r="AD11">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="AE11">
         <v>980</v>
@@ -3084,13 +3054,13 @@
         <v>1000</v>
       </c>
       <c r="AJ11">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="AK11">
         <v>1000</v>
       </c>
       <c r="AL11">
-        <v>9.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AM11">
         <v>980</v>
@@ -3132,19 +3102,19 @@
         <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BA11">
         <v>1000</v>
       </c>
       <c r="BB11">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BC11">
         <v>1000</v>
       </c>
       <c r="BD11">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3191,145 +3161,145 @@
         <v>166</v>
       </c>
       <c r="F12">
-        <v>1.06</v>
+        <v>2.46</v>
       </c>
       <c r="G12">
-        <v>870</v>
+        <v>11.5</v>
       </c>
       <c r="H12">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="I12">
-        <v>870</v>
+        <v>3.2</v>
       </c>
       <c r="J12">
-        <v>1.22</v>
+        <v>4.1</v>
       </c>
       <c r="K12">
-        <v>950</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L12">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="N12">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="O12">
-        <v>6.4</v>
+        <v>2.52</v>
       </c>
       <c r="P12">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="Q12">
-        <v>1000</v>
+        <v>1.65</v>
       </c>
       <c r="R12">
-        <v>1.14</v>
+        <v>2.56</v>
       </c>
       <c r="S12">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>1.03</v>
+        <v>1.49</v>
       </c>
       <c r="U12">
         <v>980</v>
       </c>
       <c r="V12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="W12">
         <v>980</v>
       </c>
       <c r="X12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="Y12">
         <v>1000</v>
       </c>
       <c r="Z12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AA12">
         <v>1000</v>
       </c>
       <c r="AB12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AC12">
         <v>980</v>
       </c>
       <c r="AD12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AE12">
         <v>980</v>
       </c>
       <c r="AF12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AG12">
         <v>980</v>
       </c>
       <c r="AH12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AI12">
         <v>1000</v>
       </c>
       <c r="AJ12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AK12">
         <v>1000</v>
       </c>
       <c r="AL12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AM12">
         <v>980</v>
       </c>
       <c r="AN12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AO12">
         <v>980</v>
       </c>
       <c r="AP12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AQ12">
         <v>1000</v>
       </c>
       <c r="AR12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AS12">
         <v>1000</v>
       </c>
       <c r="AT12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AU12">
         <v>1000</v>
       </c>
       <c r="AV12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AW12">
         <v>1000</v>
       </c>
       <c r="AX12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AY12">
         <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BA12">
         <v>1000</v>
@@ -3341,7 +3311,7 @@
         <v>1000</v>
       </c>
       <c r="BD12">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3388,73 +3358,73 @@
         <v>167</v>
       </c>
       <c r="F13">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="G13">
-        <v>990</v>
+        <v>1.2</v>
       </c>
       <c r="H13">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="I13">
-        <v>870</v>
+        <v>110</v>
       </c>
       <c r="J13">
-        <v>1.48</v>
+        <v>7.4</v>
       </c>
       <c r="K13">
-        <v>950</v>
+        <v>18.5</v>
       </c>
       <c r="L13">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="N13">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="O13">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="P13">
-        <v>1.14</v>
+        <v>2.36</v>
       </c>
       <c r="Q13">
-        <v>990</v>
+        <v>2.7</v>
       </c>
       <c r="R13">
-        <v>1.14</v>
+        <v>1.65</v>
       </c>
       <c r="S13">
-        <v>990</v>
+        <v>1.73</v>
       </c>
       <c r="T13">
+        <v>1.49</v>
+      </c>
+      <c r="U13">
+        <v>980</v>
+      </c>
+      <c r="V13">
+        <v>4.2</v>
+      </c>
+      <c r="W13">
+        <v>980</v>
+      </c>
+      <c r="X13">
+        <v>4.2</v>
+      </c>
+      <c r="Y13">
+        <v>1000</v>
+      </c>
+      <c r="Z13">
+        <v>4.2</v>
+      </c>
+      <c r="AA13">
+        <v>1000</v>
+      </c>
+      <c r="AB13">
         <v>1.1</v>
-      </c>
-      <c r="U13">
-        <v>980</v>
-      </c>
-      <c r="V13">
-        <v>1.1</v>
-      </c>
-      <c r="W13">
-        <v>980</v>
-      </c>
-      <c r="X13">
-        <v>1.1</v>
-      </c>
-      <c r="Y13">
-        <v>1000</v>
-      </c>
-      <c r="Z13">
-        <v>1.1</v>
-      </c>
-      <c r="AA13">
-        <v>1000</v>
-      </c>
-      <c r="AB13">
-        <v>8.199999999999999</v>
       </c>
       <c r="AC13">
         <v>980</v>
@@ -3466,25 +3436,25 @@
         <v>980</v>
       </c>
       <c r="AF13">
+        <v>4.2</v>
+      </c>
+      <c r="AG13">
+        <v>980</v>
+      </c>
+      <c r="AH13">
+        <v>4.2</v>
+      </c>
+      <c r="AI13">
+        <v>1000</v>
+      </c>
+      <c r="AJ13">
         <v>1.1</v>
       </c>
-      <c r="AG13">
-        <v>980</v>
-      </c>
-      <c r="AH13">
+      <c r="AK13">
+        <v>1000</v>
+      </c>
+      <c r="AL13">
         <v>1.1</v>
-      </c>
-      <c r="AI13">
-        <v>1000</v>
-      </c>
-      <c r="AJ13">
-        <v>6.2</v>
-      </c>
-      <c r="AK13">
-        <v>1000</v>
-      </c>
-      <c r="AL13">
-        <v>9.4</v>
       </c>
       <c r="AM13">
         <v>980</v>
@@ -3496,19 +3466,19 @@
         <v>980</v>
       </c>
       <c r="AP13">
+        <v>4.2</v>
+      </c>
+      <c r="AQ13">
+        <v>1000</v>
+      </c>
+      <c r="AR13">
         <v>1.1</v>
       </c>
-      <c r="AQ13">
-        <v>1000</v>
-      </c>
-      <c r="AR13">
-        <v>7.4</v>
-      </c>
       <c r="AS13">
         <v>1000</v>
       </c>
       <c r="AT13">
-        <v>10.5</v>
+        <v>1.1</v>
       </c>
       <c r="AU13">
         <v>1000</v>
@@ -3529,16 +3499,16 @@
         <v>1.01</v>
       </c>
       <c r="BA13">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="BB13">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="BC13">
         <v>1000</v>
       </c>
       <c r="BD13">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -3585,157 +3555,157 @@
         <v>168</v>
       </c>
       <c r="F14">
+        <v>2.02</v>
+      </c>
+      <c r="G14">
+        <v>2.12</v>
+      </c>
+      <c r="H14">
+        <v>3.95</v>
+      </c>
+      <c r="I14">
+        <v>4.4</v>
+      </c>
+      <c r="J14">
+        <v>3.5</v>
+      </c>
+      <c r="K14">
+        <v>3.85</v>
+      </c>
+      <c r="L14">
         <v>2.04</v>
       </c>
-      <c r="G14">
-        <v>2.16</v>
-      </c>
-      <c r="H14">
-        <v>3.5</v>
-      </c>
-      <c r="I14">
-        <v>4.1</v>
-      </c>
-      <c r="J14">
-        <v>3.55</v>
-      </c>
-      <c r="K14">
-        <v>3.95</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
       <c r="M14">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="N14">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="P14">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="Q14">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R14">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="S14">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="T14">
         <v>11.5</v>
       </c>
       <c r="U14">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="V14">
+        <v>13.5</v>
+      </c>
+      <c r="W14">
+        <v>21</v>
+      </c>
+      <c r="X14">
+        <v>5.1</v>
+      </c>
+      <c r="Y14">
+        <v>38</v>
+      </c>
+      <c r="Z14">
+        <v>4.9</v>
+      </c>
+      <c r="AA14">
+        <v>980</v>
+      </c>
+      <c r="AB14">
+        <v>8.6</v>
+      </c>
+      <c r="AC14">
+        <v>11</v>
+      </c>
+      <c r="AD14">
+        <v>7.2</v>
+      </c>
+      <c r="AE14">
+        <v>9</v>
+      </c>
+      <c r="AF14">
+        <v>14</v>
+      </c>
+      <c r="AG14">
+        <v>21</v>
+      </c>
+      <c r="AH14">
+        <v>4.8</v>
+      </c>
+      <c r="AI14">
+        <v>980</v>
+      </c>
+      <c r="AJ14">
+        <v>4.3</v>
+      </c>
+      <c r="AK14">
+        <v>16</v>
+      </c>
+      <c r="AL14">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM14">
         <v>11.5</v>
       </c>
-      <c r="W14">
-        <v>19.5</v>
-      </c>
-      <c r="X14">
-        <v>4.4</v>
-      </c>
-      <c r="Y14">
-        <v>980</v>
-      </c>
-      <c r="Z14">
-        <v>4.3</v>
-      </c>
-      <c r="AA14">
-        <v>980</v>
-      </c>
-      <c r="AB14">
-        <v>8</v>
-      </c>
-      <c r="AC14">
-        <v>13</v>
-      </c>
-      <c r="AD14">
-        <v>7</v>
-      </c>
-      <c r="AE14">
-        <v>9.4</v>
-      </c>
-      <c r="AF14">
-        <v>13</v>
-      </c>
-      <c r="AG14">
-        <v>19.5</v>
-      </c>
-      <c r="AH14">
-        <v>4.2</v>
-      </c>
-      <c r="AI14">
-        <v>980</v>
-      </c>
-      <c r="AJ14">
-        <v>10</v>
-      </c>
-      <c r="AK14">
-        <v>16.5</v>
-      </c>
-      <c r="AL14">
-        <v>8</v>
-      </c>
-      <c r="AM14">
-        <v>13.5</v>
-      </c>
       <c r="AN14">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP14">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AQ14">
         <v>980</v>
       </c>
       <c r="AR14">
-        <v>18.5</v>
+        <v>4.7</v>
       </c>
       <c r="AS14">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AT14">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AU14">
         <v>26</v>
       </c>
       <c r="AV14">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AW14">
         <v>980</v>
       </c>
       <c r="AX14">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AY14">
         <v>980</v>
       </c>
       <c r="AZ14">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="BA14">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BB14">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="BC14">
         <v>980</v>
       </c>
       <c r="BD14">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="BE14">
         <v>1000</v>
@@ -3782,157 +3752,157 @@
         <v>169</v>
       </c>
       <c r="F15">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G15">
         <v>3.75</v>
       </c>
       <c r="H15">
+        <v>2.4</v>
+      </c>
+      <c r="I15">
+        <v>2.48</v>
+      </c>
+      <c r="J15">
+        <v>3.15</v>
+      </c>
+      <c r="K15">
+        <v>3.3</v>
+      </c>
+      <c r="L15">
+        <v>1.67</v>
+      </c>
+      <c r="M15">
+        <v>1.74</v>
+      </c>
+      <c r="N15">
         <v>2.34</v>
       </c>
-      <c r="I15">
-        <v>2.58</v>
-      </c>
-      <c r="J15">
-        <v>3.05</v>
-      </c>
-      <c r="K15">
-        <v>3.45</v>
-      </c>
-      <c r="L15">
-        <v>1.63</v>
-      </c>
-      <c r="M15">
-        <v>1.76</v>
-      </c>
-      <c r="N15">
-        <v>2.32</v>
-      </c>
       <c r="O15">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="P15">
         <v>1.98</v>
       </c>
       <c r="Q15">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="R15">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="S15">
         <v>2.02</v>
       </c>
       <c r="T15">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="U15">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="V15">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="W15">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="X15">
-        <v>4.7</v>
+        <v>12</v>
       </c>
       <c r="Y15">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z15">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AA15">
         <v>980</v>
       </c>
       <c r="AB15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC15">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD15">
         <v>6.4</v>
       </c>
       <c r="AE15">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AF15">
-        <v>9.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="AG15">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH15">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AI15">
         <v>980</v>
       </c>
       <c r="AJ15">
+        <v>5.4</v>
+      </c>
+      <c r="AK15">
+        <v>25</v>
+      </c>
+      <c r="AL15">
+        <v>12</v>
+      </c>
+      <c r="AM15">
+        <v>16.5</v>
+      </c>
+      <c r="AN15">
         <v>5.3</v>
       </c>
-      <c r="AK15">
-        <v>980</v>
-      </c>
-      <c r="AL15">
-        <v>4.8</v>
-      </c>
-      <c r="AM15">
-        <v>980</v>
-      </c>
-      <c r="AN15">
-        <v>5.2</v>
-      </c>
       <c r="AO15">
         <v>980</v>
       </c>
       <c r="AP15">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AQ15">
         <v>980</v>
       </c>
       <c r="AR15">
+        <v>6.4</v>
+      </c>
+      <c r="AS15">
+        <v>980</v>
+      </c>
+      <c r="AT15">
         <v>6.2</v>
       </c>
-      <c r="AS15">
-        <v>980</v>
-      </c>
-      <c r="AT15">
-        <v>6</v>
-      </c>
       <c r="AU15">
         <v>980</v>
       </c>
       <c r="AV15">
+        <v>6.4</v>
+      </c>
+      <c r="AW15">
+        <v>980</v>
+      </c>
+      <c r="AX15">
+        <v>7</v>
+      </c>
+      <c r="AY15">
+        <v>980</v>
+      </c>
+      <c r="AZ15">
         <v>6.2</v>
       </c>
-      <c r="AW15">
-        <v>980</v>
-      </c>
-      <c r="AX15">
-        <v>6.4</v>
-      </c>
-      <c r="AY15">
-        <v>980</v>
-      </c>
-      <c r="AZ15">
-        <v>6</v>
-      </c>
       <c r="BA15">
         <v>980</v>
       </c>
       <c r="BB15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BC15">
         <v>980</v>
       </c>
       <c r="BD15">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BE15">
         <v>1000</v>
@@ -3979,73 +3949,73 @@
         <v>170</v>
       </c>
       <c r="F16">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="G16">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H16">
         <v>3.6</v>
       </c>
       <c r="I16">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K16">
         <v>3.55</v>
       </c>
       <c r="L16">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="M16">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="N16">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="O16">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="P16">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="Q16">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="R16">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="S16">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="T16">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="U16">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="W16">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="X16">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y16">
         <v>28</v>
       </c>
       <c r="Z16">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="AA16">
         <v>1000</v>
       </c>
       <c r="AB16">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="AC16">
         <v>8.4</v>
@@ -4054,82 +4024,82 @@
         <v>6.2</v>
       </c>
       <c r="AE16">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AF16">
         <v>5.2</v>
       </c>
       <c r="AG16">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH16">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="AI16">
         <v>65</v>
       </c>
       <c r="AJ16">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AK16">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL16">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AM16">
         <v>12</v>
       </c>
       <c r="AN16">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AO16">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AP16">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AQ16">
         <v>1000</v>
       </c>
       <c r="AR16">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="AS16">
         <v>32</v>
       </c>
       <c r="AT16">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="AU16">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AV16">
         <v>5</v>
       </c>
       <c r="AW16">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AX16">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="AY16">
         <v>1000</v>
       </c>
       <c r="AZ16">
-        <v>1.94</v>
+        <v>3.25</v>
       </c>
       <c r="BA16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB16">
-        <v>1.27</v>
+        <v>2.54</v>
       </c>
       <c r="BC16">
         <v>1000</v>
       </c>
       <c r="BD16">
-        <v>1.29</v>
+        <v>7.4</v>
       </c>
       <c r="BE16">
         <v>1000</v>
@@ -4179,154 +4149,154 @@
         <v>1.48</v>
       </c>
       <c r="G17">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="H17">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J17">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K17">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L17">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="M17">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="N17">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="O17">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P17">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="Q17">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="T17">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="U17">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="V17">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W17">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X17">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Y17">
         <v>70</v>
       </c>
       <c r="Z17">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AA17">
         <v>980</v>
       </c>
       <c r="AB17">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC17">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17">
         <v>9.6</v>
       </c>
       <c r="AE17">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH17">
-        <v>9.800000000000001</v>
+        <v>70</v>
       </c>
       <c r="AI17">
         <v>120</v>
       </c>
       <c r="AJ17">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AK17">
+        <v>8.6</v>
+      </c>
+      <c r="AL17">
+        <v>9</v>
+      </c>
+      <c r="AM17">
         <v>9.800000000000001</v>
       </c>
-      <c r="AL17">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AM17">
-        <v>10.5</v>
-      </c>
       <c r="AN17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO17">
         <v>24</v>
       </c>
       <c r="AP17">
-        <v>9.800000000000001</v>
+        <v>80</v>
       </c>
       <c r="AQ17">
         <v>110</v>
       </c>
       <c r="AR17">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AS17">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AT17">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AU17">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AV17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AW17">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AX17">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="AY17">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AZ17">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="BA17">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BB17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BC17">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="BD17">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4379,19 +4349,19 @@
         <v>2.36</v>
       </c>
       <c r="H18">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I18">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J18">
+        <v>3.65</v>
+      </c>
+      <c r="K18">
         <v>3.7</v>
       </c>
-      <c r="K18">
-        <v>3.75</v>
-      </c>
       <c r="L18">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="M18">
         <v>2.18</v>
@@ -4400,19 +4370,19 @@
         <v>1.85</v>
       </c>
       <c r="O18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P18">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q18">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R18">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="S18">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="T18">
         <v>14</v>
@@ -4427,25 +4397,25 @@
         <v>14.5</v>
       </c>
       <c r="X18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18">
         <v>24</v>
       </c>
       <c r="Z18">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AA18">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB18">
         <v>10.5</v>
       </c>
       <c r="AC18">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD18">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE18">
         <v>8.199999999999999</v>
@@ -4454,7 +4424,7 @@
         <v>12.5</v>
       </c>
       <c r="AG18">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH18">
         <v>30</v>
@@ -4463,19 +4433,19 @@
         <v>36</v>
       </c>
       <c r="AJ18">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK18">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL18">
         <v>10</v>
       </c>
       <c r="AM18">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN18">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO18">
         <v>17</v>
@@ -4487,16 +4457,16 @@
         <v>44</v>
       </c>
       <c r="AR18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AT18">
         <v>21</v>
       </c>
       <c r="AU18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV18">
         <v>30</v>
@@ -4505,7 +4475,7 @@
         <v>36</v>
       </c>
       <c r="AX18">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AY18">
         <v>85</v>
@@ -4520,7 +4490,7 @@
         <v>25</v>
       </c>
       <c r="BC18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD18">
         <v>16.5</v>
@@ -4570,157 +4540,157 @@
         <v>173</v>
       </c>
       <c r="F19">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="G19">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="H19">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I19">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J19">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K19">
         <v>3.55</v>
       </c>
       <c r="L19">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="M19">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="N19">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="O19">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P19">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="Q19">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S19">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="T19">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="U19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V19">
+        <v>12</v>
+      </c>
+      <c r="W19">
+        <v>13.5</v>
+      </c>
+      <c r="X19">
+        <v>21</v>
+      </c>
+      <c r="Y19">
+        <v>24</v>
+      </c>
+      <c r="Z19">
+        <v>46</v>
+      </c>
+      <c r="AA19">
+        <v>65</v>
+      </c>
+      <c r="AB19">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC19">
         <v>10</v>
       </c>
-      <c r="W19">
+      <c r="AD19">
+        <v>7.2</v>
+      </c>
+      <c r="AE19">
+        <v>8</v>
+      </c>
+      <c r="AF19">
+        <v>13.5</v>
+      </c>
+      <c r="AG19">
         <v>15</v>
       </c>
-      <c r="X19">
-        <v>17</v>
-      </c>
-      <c r="Y19">
-        <v>26</v>
-      </c>
-      <c r="Z19">
-        <v>4.9</v>
-      </c>
-      <c r="AA19">
-        <v>980</v>
-      </c>
-      <c r="AB19">
-        <v>8.6</v>
-      </c>
-      <c r="AC19">
-        <v>11.5</v>
-      </c>
-      <c r="AD19">
-        <v>6.8</v>
-      </c>
-      <c r="AE19">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF19">
-        <v>11</v>
-      </c>
-      <c r="AG19">
-        <v>17</v>
-      </c>
       <c r="AH19">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AI19">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ19">
         <v>12.5</v>
       </c>
       <c r="AK19">
+        <v>14</v>
+      </c>
+      <c r="AL19">
+        <v>10</v>
+      </c>
+      <c r="AM19">
+        <v>11</v>
+      </c>
+      <c r="AN19">
+        <v>16.5</v>
+      </c>
+      <c r="AO19">
         <v>18.5</v>
       </c>
-      <c r="AL19">
-        <v>9.6</v>
-      </c>
-      <c r="AM19">
-        <v>14</v>
-      </c>
-      <c r="AN19">
-        <v>14.5</v>
-      </c>
-      <c r="AO19">
-        <v>23</v>
-      </c>
       <c r="AP19">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="AQ19">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AR19">
+        <v>26</v>
+      </c>
+      <c r="AS19">
+        <v>30</v>
+      </c>
+      <c r="AT19">
+        <v>22</v>
+      </c>
+      <c r="AU19">
         <v>25</v>
       </c>
-      <c r="AS19">
+      <c r="AV19">
+        <v>36</v>
+      </c>
+      <c r="AW19">
         <v>40</v>
       </c>
-      <c r="AT19">
+      <c r="AX19">
+        <v>65</v>
+      </c>
+      <c r="AY19">
+        <v>100</v>
+      </c>
+      <c r="AZ19">
+        <v>16.5</v>
+      </c>
+      <c r="BA19">
         <v>19</v>
       </c>
-      <c r="AU19">
-        <v>32</v>
-      </c>
-      <c r="AV19">
-        <v>5.1</v>
-      </c>
-      <c r="AW19">
-        <v>980</v>
-      </c>
-      <c r="AX19">
-        <v>4.8</v>
-      </c>
-      <c r="AY19">
-        <v>980</v>
-      </c>
-      <c r="AZ19">
-        <v>4.1</v>
-      </c>
-      <c r="BA19">
-        <v>25</v>
-      </c>
       <c r="BB19">
-        <v>4.4</v>
+        <v>30</v>
       </c>
       <c r="BC19">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BD19">
-        <v>4.9</v>
+        <v>20</v>
       </c>
       <c r="BE19">
         <v>1000</v>
@@ -4767,160 +4737,160 @@
         <v>174</v>
       </c>
       <c r="F20">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G20">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I20">
+        <v>3.3</v>
+      </c>
+      <c r="J20">
         <v>3.4</v>
       </c>
-      <c r="J20">
-        <v>3.45</v>
-      </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="M20">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="N20">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="O20">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="P20">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q20">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R20">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S20">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T20">
+        <v>12</v>
+      </c>
+      <c r="U20">
+        <v>16.5</v>
+      </c>
+      <c r="V20">
+        <v>11.5</v>
+      </c>
+      <c r="W20">
+        <v>15.5</v>
+      </c>
+      <c r="X20">
+        <v>19</v>
+      </c>
+      <c r="Y20">
+        <v>27</v>
+      </c>
+      <c r="Z20">
+        <v>4.5</v>
+      </c>
+      <c r="AA20">
+        <v>65</v>
+      </c>
+      <c r="AB20">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC20">
+        <v>13.5</v>
+      </c>
+      <c r="AD20">
+        <v>7.2</v>
+      </c>
+      <c r="AE20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF20">
+        <v>12</v>
+      </c>
+      <c r="AG20">
+        <v>17</v>
+      </c>
+      <c r="AH20">
+        <v>27</v>
+      </c>
+      <c r="AI20">
+        <v>44</v>
+      </c>
+      <c r="AJ20">
+        <v>14</v>
+      </c>
+      <c r="AK20">
+        <v>19.5</v>
+      </c>
+      <c r="AL20">
         <v>10</v>
       </c>
-      <c r="U20">
-        <v>17</v>
-      </c>
-      <c r="V20">
-        <v>3.7</v>
-      </c>
-      <c r="W20">
-        <v>980</v>
-      </c>
-      <c r="X20">
+      <c r="AM20">
+        <v>14.5</v>
+      </c>
+      <c r="AN20">
+        <v>15</v>
+      </c>
+      <c r="AO20">
+        <v>22</v>
+      </c>
+      <c r="AP20">
+        <v>5.1</v>
+      </c>
+      <c r="AQ20">
+        <v>60</v>
+      </c>
+      <c r="AR20">
+        <v>27</v>
+      </c>
+      <c r="AS20">
+        <v>42</v>
+      </c>
+      <c r="AT20">
+        <v>20</v>
+      </c>
+      <c r="AU20">
+        <v>32</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>48</v>
+      </c>
+      <c r="AX20">
+        <v>4.7</v>
+      </c>
+      <c r="AY20">
+        <v>120</v>
+      </c>
+      <c r="AZ20">
         <v>4</v>
       </c>
-      <c r="Y20">
-        <v>980</v>
-      </c>
-      <c r="Z20">
-        <v>4.4</v>
-      </c>
-      <c r="AA20">
-        <v>980</v>
-      </c>
-      <c r="AB20">
-        <v>3.5</v>
-      </c>
-      <c r="AC20">
-        <v>980</v>
-      </c>
-      <c r="AD20">
-        <v>3.15</v>
-      </c>
-      <c r="AE20">
-        <v>9.6</v>
-      </c>
-      <c r="AF20">
-        <v>3.7</v>
-      </c>
-      <c r="AG20">
-        <v>980</v>
-      </c>
-      <c r="AH20">
+      <c r="BA20">
+        <v>24</v>
+      </c>
+      <c r="BB20">
         <v>4.2</v>
       </c>
-      <c r="AI20">
-        <v>980</v>
-      </c>
-      <c r="AJ20">
-        <v>3.8</v>
-      </c>
-      <c r="AK20">
-        <v>980</v>
-      </c>
-      <c r="AL20">
-        <v>3.6</v>
-      </c>
-      <c r="AM20">
-        <v>980</v>
-      </c>
-      <c r="AN20">
-        <v>3.9</v>
-      </c>
-      <c r="AO20">
-        <v>980</v>
-      </c>
-      <c r="AP20">
-        <v>4.4</v>
-      </c>
-      <c r="AQ20">
-        <v>980</v>
-      </c>
-      <c r="AR20">
-        <v>4.2</v>
-      </c>
-      <c r="AS20">
-        <v>980</v>
-      </c>
-      <c r="AT20">
-        <v>4.1</v>
-      </c>
-      <c r="AU20">
-        <v>980</v>
-      </c>
-      <c r="AV20">
-        <v>4.3</v>
-      </c>
-      <c r="AW20">
-        <v>980</v>
-      </c>
-      <c r="AX20">
-        <v>4.5</v>
-      </c>
-      <c r="AY20">
-        <v>980</v>
-      </c>
-      <c r="AZ20">
-        <v>3.9</v>
-      </c>
-      <c r="BA20">
-        <v>980</v>
-      </c>
-      <c r="BB20">
-        <v>4.1</v>
-      </c>
       <c r="BC20">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="BD20">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="BE20">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF20">
         <v>33157811</v>
@@ -4964,157 +4934,157 @@
         <v>175</v>
       </c>
       <c r="F21">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="G21">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="I21">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="J21">
+        <v>3.55</v>
+      </c>
+      <c r="K21">
         <v>3.6</v>
       </c>
-      <c r="K21">
-        <v>3.7</v>
-      </c>
       <c r="L21">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="M21">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="N21">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="O21">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P21">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q21">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R21">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S21">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T21">
         <v>14</v>
       </c>
       <c r="U21">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="V21">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="W21">
+        <v>13</v>
+      </c>
+      <c r="X21">
         <v>16.5</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>19</v>
       </c>
-      <c r="Y21">
-        <v>27</v>
-      </c>
       <c r="Z21">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AA21">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AB21">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC21">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD21">
         <v>7.6</v>
       </c>
       <c r="AE21">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG21">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI21">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AJ21">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AK21">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL21">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM21">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN21">
         <v>15</v>
       </c>
       <c r="AO21">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AP21">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AQ21">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AR21">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AS21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AT21">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AU21">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AV21">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AW21">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AX21">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AY21">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AZ21">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="BA21">
         <v>22</v>
       </c>
       <c r="BB21">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="BC21">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="BD21">
-        <v>5.7</v>
+        <v>17.5</v>
       </c>
       <c r="BE21">
         <v>980</v>
@@ -5161,13 +5131,13 @@
         <v>176</v>
       </c>
       <c r="F22">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G22">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="H22">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I22">
         <v>3.4</v>
@@ -5176,142 +5146,142 @@
         <v>3.6</v>
       </c>
       <c r="K22">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="M22">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="P22">
         <v>1.74</v>
       </c>
       <c r="Q22">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="R22">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="S22">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T22">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U22">
         <v>18.5</v>
       </c>
       <c r="V22">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W22">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X22">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z22">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="AA22">
         <v>70</v>
       </c>
       <c r="AB22">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC22">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AD22">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AE22">
         <v>9.199999999999999</v>
       </c>
       <c r="AF22">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG22">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH22">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AI22">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ22">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK22">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL22">
         <v>9.800000000000001</v>
       </c>
       <c r="AM22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN22">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO22">
         <v>22</v>
       </c>
       <c r="AP22">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="AQ22">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR22">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AS22">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AT22">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AU22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV22">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AW22">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AX22">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="AY22">
         <v>110</v>
       </c>
       <c r="AZ22">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="BA22">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="BB22">
-        <v>5.4</v>
+        <v>13</v>
       </c>
       <c r="BC22">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BD22">
-        <v>4.5</v>
+        <v>36</v>
       </c>
       <c r="BE22">
         <v>980</v>
@@ -5358,16 +5328,16 @@
         <v>177</v>
       </c>
       <c r="F23">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G23">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H23">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I23">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J23">
         <v>4.1</v>
@@ -5376,139 +5346,139 @@
         <v>4.3</v>
       </c>
       <c r="L23">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="M23">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="N23">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="O23">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P23">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q23">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R23">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="S23">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="T23">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="U23">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V23">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="W23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X23">
         <v>32</v>
       </c>
       <c r="Y23">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z23">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA23">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB23">
+        <v>10</v>
+      </c>
+      <c r="AC23">
+        <v>11.5</v>
+      </c>
+      <c r="AD23">
+        <v>8.6</v>
+      </c>
+      <c r="AE23">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF23">
+        <v>16.5</v>
+      </c>
+      <c r="AG23">
+        <v>18</v>
+      </c>
+      <c r="AH23">
+        <v>44</v>
+      </c>
+      <c r="AI23">
+        <v>50</v>
+      </c>
+      <c r="AJ23">
         <v>11</v>
       </c>
-      <c r="AC23">
-        <v>12</v>
-      </c>
-      <c r="AD23">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AE23">
-        <v>9.6</v>
-      </c>
-      <c r="AF23">
-        <v>16</v>
-      </c>
-      <c r="AG23">
-        <v>17.5</v>
-      </c>
-      <c r="AH23">
-        <v>40</v>
-      </c>
-      <c r="AI23">
-        <v>46</v>
-      </c>
-      <c r="AJ23">
-        <v>12</v>
-      </c>
       <c r="AK23">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL23">
         <v>9.4</v>
       </c>
       <c r="AM23">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO23">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP23">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AQ23">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AR23">
         <v>18.5</v>
       </c>
       <c r="AS23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23">
         <v>15.5</v>
       </c>
       <c r="AU23">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AV23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW23">
         <v>28</v>
       </c>
       <c r="AX23">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AY23">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AZ23">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BA23">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BB23">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BC23">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="BD23">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="BE23">
         <v>980</v>
@@ -5555,25 +5525,25 @@
         <v>178</v>
       </c>
       <c r="F24">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="G24">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="H24">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="I24">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K24">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L24">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="M24">
         <v>2.18</v>
@@ -5582,130 +5552,130 @@
         <v>1.86</v>
       </c>
       <c r="O24">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="P24">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q24">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="R24">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S24">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="T24">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="U24">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="V24">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="W24">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X24">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y24">
         <v>980</v>
       </c>
       <c r="Z24">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AA24">
         <v>980</v>
       </c>
       <c r="AB24">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="AC24">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD24">
+        <v>7.4</v>
+      </c>
+      <c r="AE24">
+        <v>14</v>
+      </c>
+      <c r="AF24">
+        <v>10.5</v>
+      </c>
+      <c r="AG24">
+        <v>15.5</v>
+      </c>
+      <c r="AH24">
+        <v>7</v>
+      </c>
+      <c r="AI24">
+        <v>980</v>
+      </c>
+      <c r="AJ24">
+        <v>12</v>
+      </c>
+      <c r="AK24">
+        <v>16.5</v>
+      </c>
+      <c r="AL24">
+        <v>5.1</v>
+      </c>
+      <c r="AM24">
+        <v>12</v>
+      </c>
+      <c r="AN24">
+        <v>6.2</v>
+      </c>
+      <c r="AO24">
+        <v>980</v>
+      </c>
+      <c r="AP24">
         <v>7.2</v>
       </c>
-      <c r="AE24">
-        <v>9</v>
-      </c>
-      <c r="AF24">
-        <v>5</v>
-      </c>
-      <c r="AG24">
-        <v>980</v>
-      </c>
-      <c r="AH24">
-        <v>5.6</v>
-      </c>
-      <c r="AI24">
-        <v>980</v>
-      </c>
-      <c r="AJ24">
-        <v>5.2</v>
-      </c>
-      <c r="AK24">
-        <v>980</v>
-      </c>
-      <c r="AL24">
-        <v>4.8</v>
-      </c>
-      <c r="AM24">
-        <v>980</v>
-      </c>
-      <c r="AN24">
-        <v>12.5</v>
-      </c>
-      <c r="AO24">
-        <v>980</v>
-      </c>
-      <c r="AP24">
-        <v>5.9</v>
-      </c>
       <c r="AQ24">
         <v>980</v>
       </c>
       <c r="AR24">
+        <v>6.8</v>
+      </c>
+      <c r="AS24">
+        <v>980</v>
+      </c>
+      <c r="AT24">
+        <v>6.4</v>
+      </c>
+      <c r="AU24">
+        <v>980</v>
+      </c>
+      <c r="AV24">
+        <v>7</v>
+      </c>
+      <c r="AW24">
+        <v>980</v>
+      </c>
+      <c r="AX24">
+        <v>7.8</v>
+      </c>
+      <c r="AY24">
+        <v>980</v>
+      </c>
+      <c r="AZ24">
         <v>5.7</v>
       </c>
-      <c r="AS24">
-        <v>980</v>
-      </c>
-      <c r="AT24">
-        <v>5.5</v>
-      </c>
-      <c r="AU24">
-        <v>980</v>
-      </c>
-      <c r="AV24">
-        <v>5.8</v>
-      </c>
-      <c r="AW24">
-        <v>980</v>
-      </c>
-      <c r="AX24">
-        <v>6.2</v>
-      </c>
-      <c r="AY24">
-        <v>980</v>
-      </c>
-      <c r="AZ24">
-        <v>5.2</v>
-      </c>
       <c r="BA24">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BB24">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="BC24">
         <v>980</v>
       </c>
       <c r="BD24">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -5752,157 +5722,157 @@
         <v>179</v>
       </c>
       <c r="F25">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G25">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="H25">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="I25">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="J25">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L25">
+        <v>1.48</v>
+      </c>
+      <c r="M25">
         <v>1.51</v>
       </c>
-      <c r="M25">
+      <c r="N25">
+        <v>2.96</v>
+      </c>
+      <c r="O25">
+        <v>3.1</v>
+      </c>
+      <c r="P25">
+        <v>2.18</v>
+      </c>
+      <c r="Q25">
+        <v>2.52</v>
+      </c>
+      <c r="R25">
         <v>1.66</v>
       </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>2.98</v>
-      </c>
-      <c r="P25">
-        <v>2.08</v>
-      </c>
-      <c r="Q25">
-        <v>2.44</v>
-      </c>
-      <c r="R25">
-        <v>1.7</v>
-      </c>
       <c r="S25">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
         <v>6.6</v>
       </c>
       <c r="U25">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="V25">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W25">
+        <v>11.5</v>
+      </c>
+      <c r="X25">
+        <v>23</v>
+      </c>
+      <c r="Y25">
+        <v>30</v>
+      </c>
+      <c r="Z25">
+        <v>65</v>
+      </c>
+      <c r="AA25">
+        <v>120</v>
+      </c>
+      <c r="AB25">
+        <v>6.2</v>
+      </c>
+      <c r="AC25">
+        <v>7</v>
+      </c>
+      <c r="AD25">
+        <v>6.4</v>
+      </c>
+      <c r="AE25">
+        <v>7</v>
+      </c>
+      <c r="AF25">
+        <v>16.5</v>
+      </c>
+      <c r="AG25">
+        <v>21</v>
+      </c>
+      <c r="AH25">
+        <v>50</v>
+      </c>
+      <c r="AI25">
+        <v>90</v>
+      </c>
+      <c r="AJ25">
+        <v>10</v>
+      </c>
+      <c r="AK25">
         <v>13</v>
       </c>
-      <c r="X25">
-        <v>4.4</v>
-      </c>
-      <c r="Y25">
-        <v>32</v>
-      </c>
-      <c r="Z25">
-        <v>4.7</v>
-      </c>
-      <c r="AA25">
-        <v>980</v>
-      </c>
-      <c r="AB25">
-        <v>6</v>
-      </c>
-      <c r="AC25">
-        <v>8</v>
-      </c>
-      <c r="AD25">
-        <v>6</v>
-      </c>
-      <c r="AE25">
-        <v>8.6</v>
-      </c>
-      <c r="AF25">
-        <v>14.5</v>
-      </c>
-      <c r="AG25">
-        <v>22</v>
-      </c>
-      <c r="AH25">
-        <v>4.6</v>
-      </c>
-      <c r="AI25">
-        <v>980</v>
-      </c>
-      <c r="AJ25">
-        <v>10.5</v>
-      </c>
-      <c r="AK25">
-        <v>15.5</v>
-      </c>
       <c r="AL25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN25">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AO25">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP25">
-        <v>4.6</v>
+        <v>85</v>
       </c>
       <c r="AQ25">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AR25">
-        <v>4.5</v>
+        <v>25</v>
       </c>
       <c r="AS25">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AT25">
-        <v>4.5</v>
+        <v>28</v>
       </c>
       <c r="AU25">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AV25">
-        <v>4.6</v>
+        <v>46</v>
       </c>
       <c r="AW25">
         <v>980</v>
       </c>
       <c r="AX25">
-        <v>4.8</v>
+        <v>12.5</v>
       </c>
       <c r="AY25">
         <v>980</v>
       </c>
       <c r="AZ25">
-        <v>4.3</v>
+        <v>9.4</v>
       </c>
       <c r="BA25">
         <v>980</v>
       </c>
       <c r="BB25">
-        <v>4.7</v>
+        <v>11.5</v>
       </c>
       <c r="BC25">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="BD25">
-        <v>4.9</v>
+        <v>13</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -5949,157 +5919,157 @@
         <v>180</v>
       </c>
       <c r="F26">
+        <v>1.6</v>
+      </c>
+      <c r="G26">
         <v>1.63</v>
       </c>
-      <c r="G26">
-        <v>1.75</v>
-      </c>
       <c r="H26">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="J26">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K26">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L26">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="M26">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="N26">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O26">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="P26">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q26">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="R26">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S26">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="T26">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="U26">
+        <v>11.5</v>
+      </c>
+      <c r="V26">
+        <v>18</v>
+      </c>
+      <c r="W26">
+        <v>21</v>
+      </c>
+      <c r="X26">
+        <v>28</v>
+      </c>
+      <c r="Y26">
+        <v>60</v>
+      </c>
+      <c r="Z26">
+        <v>13.5</v>
+      </c>
+      <c r="AA26">
+        <v>980</v>
+      </c>
+      <c r="AB26">
+        <v>6</v>
+      </c>
+      <c r="AC26">
+        <v>6.8</v>
+      </c>
+      <c r="AD26">
+        <v>8.4</v>
+      </c>
+      <c r="AE26">
+        <v>9.4</v>
+      </c>
+      <c r="AF26">
+        <v>10</v>
+      </c>
+      <c r="AG26">
+        <v>32</v>
+      </c>
+      <c r="AH26">
         <v>13</v>
       </c>
-      <c r="V26">
+      <c r="AI26">
+        <v>980</v>
+      </c>
+      <c r="AJ26">
+        <v>7.2</v>
+      </c>
+      <c r="AK26">
+        <v>8.4</v>
+      </c>
+      <c r="AL26">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM26">
+        <v>10.5</v>
+      </c>
+      <c r="AN26">
+        <v>25</v>
+      </c>
+      <c r="AO26">
+        <v>980</v>
+      </c>
+      <c r="AP26">
+        <v>13.5</v>
+      </c>
+      <c r="AQ26">
+        <v>980</v>
+      </c>
+      <c r="AR26">
+        <v>13</v>
+      </c>
+      <c r="AS26">
+        <v>14.5</v>
+      </c>
+      <c r="AT26">
+        <v>17.5</v>
+      </c>
+      <c r="AU26">
+        <v>20</v>
+      </c>
+      <c r="AV26">
+        <v>27</v>
+      </c>
+      <c r="AW26">
+        <v>55</v>
+      </c>
+      <c r="AX26">
+        <v>13.5</v>
+      </c>
+      <c r="AY26">
+        <v>980</v>
+      </c>
+      <c r="AZ26">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BA26">
         <v>12.5</v>
       </c>
-      <c r="W26">
-        <v>19.5</v>
-      </c>
-      <c r="X26">
-        <v>4.4</v>
-      </c>
-      <c r="Y26">
-        <v>980</v>
-      </c>
-      <c r="Z26">
-        <v>4.6</v>
-      </c>
-      <c r="AA26">
-        <v>980</v>
-      </c>
-      <c r="AB26">
-        <v>5.7</v>
-      </c>
-      <c r="AC26">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26">
-        <v>7</v>
-      </c>
-      <c r="AE26">
-        <v>10.5</v>
-      </c>
-      <c r="AF26">
-        <v>19.5</v>
-      </c>
-      <c r="AG26">
-        <v>980</v>
-      </c>
-      <c r="AH26">
-        <v>4.6</v>
-      </c>
-      <c r="AI26">
-        <v>980</v>
-      </c>
-      <c r="AJ26">
-        <v>7.8</v>
-      </c>
-      <c r="AK26">
-        <v>11</v>
-      </c>
-      <c r="AL26">
-        <v>9</v>
-      </c>
-      <c r="AM26">
-        <v>13</v>
-      </c>
-      <c r="AN26">
-        <v>4.6</v>
-      </c>
-      <c r="AO26">
-        <v>980</v>
-      </c>
-      <c r="AP26">
-        <v>4.6</v>
-      </c>
-      <c r="AQ26">
-        <v>980</v>
-      </c>
-      <c r="AR26">
-        <v>4.2</v>
-      </c>
-      <c r="AS26">
-        <v>21</v>
-      </c>
-      <c r="AT26">
-        <v>4.4</v>
-      </c>
-      <c r="AU26">
-        <v>26</v>
-      </c>
-      <c r="AV26">
-        <v>4.4</v>
-      </c>
-      <c r="AW26">
-        <v>980</v>
-      </c>
-      <c r="AX26">
-        <v>4.7</v>
-      </c>
-      <c r="AY26">
-        <v>980</v>
-      </c>
-      <c r="AZ26">
-        <v>3.65</v>
-      </c>
-      <c r="BA26">
-        <v>16</v>
-      </c>
       <c r="BB26">
-        <v>4.6</v>
+        <v>13.5</v>
       </c>
       <c r="BC26">
         <v>980</v>
       </c>
       <c r="BD26">
-        <v>4.7</v>
+        <v>14.5</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6146,157 +6116,157 @@
         <v>181</v>
       </c>
       <c r="F27">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="H27">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="I27">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J27">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="K27">
         <v>6.2</v>
       </c>
       <c r="L27">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="M27">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="N27">
+        <v>1.56</v>
+      </c>
+      <c r="O27">
         <v>1.6</v>
       </c>
-      <c r="O27">
-        <v>1.71</v>
-      </c>
       <c r="P27">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q27">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S27">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="T27">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="U27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V27">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="W27">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X27">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="Y27">
         <v>9.4</v>
       </c>
       <c r="Z27">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AA27">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB27">
-        <v>6.2</v>
+        <v>32</v>
       </c>
       <c r="AC27">
         <v>38</v>
       </c>
       <c r="AD27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE27">
+        <v>13</v>
+      </c>
+      <c r="AF27">
+        <v>9.4</v>
+      </c>
+      <c r="AG27">
+        <v>10</v>
+      </c>
+      <c r="AH27">
+        <v>12</v>
+      </c>
+      <c r="AI27">
+        <v>13.5</v>
+      </c>
+      <c r="AJ27">
         <v>14.5</v>
       </c>
-      <c r="AF27">
-        <v>8.6</v>
-      </c>
-      <c r="AG27">
-        <v>11.5</v>
-      </c>
-      <c r="AH27">
-        <v>11.5</v>
-      </c>
-      <c r="AI27">
+      <c r="AK27">
+        <v>90</v>
+      </c>
+      <c r="AL27">
+        <v>30</v>
+      </c>
+      <c r="AM27">
+        <v>34</v>
+      </c>
+      <c r="AN27">
+        <v>21</v>
+      </c>
+      <c r="AO27">
+        <v>26</v>
+      </c>
+      <c r="AP27">
+        <v>25</v>
+      </c>
+      <c r="AQ27">
+        <v>30</v>
+      </c>
+      <c r="AR27">
+        <v>17</v>
+      </c>
+      <c r="AS27">
+        <v>980</v>
+      </c>
+      <c r="AT27">
         <v>15.5</v>
       </c>
-      <c r="AJ27">
-        <v>6.8</v>
-      </c>
-      <c r="AK27">
-        <v>980</v>
-      </c>
-      <c r="AL27">
-        <v>6.2</v>
-      </c>
-      <c r="AM27">
-        <v>40</v>
-      </c>
-      <c r="AN27">
-        <v>20</v>
-      </c>
-      <c r="AO27">
-        <v>32</v>
-      </c>
-      <c r="AP27">
-        <v>6.2</v>
-      </c>
-      <c r="AQ27">
-        <v>980</v>
-      </c>
-      <c r="AR27">
-        <v>7.2</v>
-      </c>
-      <c r="AS27">
-        <v>980</v>
-      </c>
-      <c r="AT27">
-        <v>7</v>
-      </c>
       <c r="AU27">
         <v>980</v>
       </c>
       <c r="AV27">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AW27">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AX27">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AY27">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AZ27">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="BA27">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="BB27">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="BC27">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="BD27">
-        <v>7.4</v>
+        <v>17.5</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6346,157 +6316,157 @@
         <v>1.74</v>
       </c>
       <c r="G28">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="H28">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J28">
         <v>4.2</v>
       </c>
       <c r="K28">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L28">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="M28">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="N28">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="O28">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="P28">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q28">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R28">
         <v>2.38</v>
       </c>
       <c r="S28">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T28">
-        <v>5.6</v>
+        <v>20</v>
       </c>
       <c r="U28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V28">
-        <v>5.6</v>
+        <v>21</v>
       </c>
       <c r="W28">
         <v>24</v>
       </c>
       <c r="X28">
-        <v>6.2</v>
+        <v>36</v>
       </c>
       <c r="Y28">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="Z28">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
       <c r="AA28">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AB28">
+        <v>11</v>
+      </c>
+      <c r="AC28">
+        <v>12.5</v>
+      </c>
+      <c r="AD28">
+        <v>9.4</v>
+      </c>
+      <c r="AE28">
         <v>10.5</v>
       </c>
-      <c r="AC28">
-        <v>13.5</v>
-      </c>
-      <c r="AD28">
-        <v>9</v>
-      </c>
-      <c r="AE28">
-        <v>11</v>
-      </c>
       <c r="AF28">
-        <v>5.4</v>
+        <v>17.5</v>
       </c>
       <c r="AG28">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH28">
-        <v>6.6</v>
+        <v>32</v>
       </c>
       <c r="AI28">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ28">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK28">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AL28">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AM28">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AN28">
         <v>15.5</v>
       </c>
       <c r="AO28">
+        <v>17.5</v>
+      </c>
+      <c r="AP28">
+        <v>44</v>
+      </c>
+      <c r="AQ28">
+        <v>50</v>
+      </c>
+      <c r="AR28">
+        <v>17</v>
+      </c>
+      <c r="AS28">
         <v>19</v>
-      </c>
-      <c r="AP28">
-        <v>6.6</v>
-      </c>
-      <c r="AQ28">
-        <v>980</v>
-      </c>
-      <c r="AR28">
-        <v>15</v>
-      </c>
-      <c r="AS28">
-        <v>21</v>
       </c>
       <c r="AT28">
         <v>14</v>
       </c>
       <c r="AU28">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AV28">
-        <v>5.9</v>
+        <v>23</v>
       </c>
       <c r="AW28">
+        <v>26</v>
+      </c>
+      <c r="AX28">
+        <v>44</v>
+      </c>
+      <c r="AY28">
+        <v>70</v>
+      </c>
+      <c r="AZ28">
+        <v>6.4</v>
+      </c>
+      <c r="BA28">
+        <v>7.6</v>
+      </c>
+      <c r="BB28">
         <v>29</v>
       </c>
-      <c r="AX28">
-        <v>6.8</v>
-      </c>
-      <c r="AY28">
-        <v>980</v>
-      </c>
-      <c r="AZ28">
-        <v>3.9</v>
-      </c>
-      <c r="BA28">
-        <v>8.4</v>
-      </c>
-      <c r="BB28">
-        <v>6.4</v>
-      </c>
       <c r="BC28">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="BD28">
-        <v>7.2</v>
+        <v>16.5</v>
       </c>
       <c r="BE28">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF28">
         <v>33157953</v>
@@ -6540,160 +6510,160 @@
         <v>183</v>
       </c>
       <c r="F29">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G29">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="H29">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="I29">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="J29">
+        <v>3.7</v>
+      </c>
+      <c r="K29">
         <v>3.8</v>
       </c>
-      <c r="K29">
-        <v>4.1</v>
-      </c>
       <c r="L29">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="M29">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="N29">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O29">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P29">
         <v>1.58</v>
       </c>
       <c r="Q29">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="R29">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="S29">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T29">
+        <v>17.5</v>
+      </c>
+      <c r="U29">
+        <v>20</v>
+      </c>
+      <c r="V29">
+        <v>14</v>
+      </c>
+      <c r="W29">
         <v>16.5</v>
       </c>
-      <c r="U29">
-        <v>22</v>
-      </c>
-      <c r="V29">
-        <v>12.5</v>
-      </c>
-      <c r="W29">
-        <v>17</v>
-      </c>
       <c r="X29">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y29">
         <v>23</v>
       </c>
       <c r="Z29">
-        <v>5.7</v>
+        <v>38</v>
       </c>
       <c r="AA29">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB29">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC29">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD29">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE29">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF29">
+        <v>11.5</v>
+      </c>
+      <c r="AG29">
+        <v>13</v>
+      </c>
+      <c r="AH29">
+        <v>25</v>
+      </c>
+      <c r="AI29">
+        <v>32</v>
+      </c>
+      <c r="AJ29">
+        <v>16.5</v>
+      </c>
+      <c r="AK29">
+        <v>18.5</v>
+      </c>
+      <c r="AL29">
         <v>10.5</v>
       </c>
-      <c r="AF29">
-        <v>10.5</v>
-      </c>
-      <c r="AG29">
-        <v>14</v>
-      </c>
-      <c r="AH29">
-        <v>5.3</v>
-      </c>
-      <c r="AI29">
-        <v>29</v>
-      </c>
-      <c r="AJ29">
+      <c r="AM29">
+        <v>11.5</v>
+      </c>
+      <c r="AN29">
+        <v>13.5</v>
+      </c>
+      <c r="AO29">
         <v>15.5</v>
       </c>
-      <c r="AK29">
-        <v>22</v>
-      </c>
-      <c r="AL29">
-        <v>10</v>
-      </c>
-      <c r="AM29">
-        <v>13.5</v>
-      </c>
-      <c r="AN29">
+      <c r="AP29">
+        <v>30</v>
+      </c>
+      <c r="AQ29">
+        <v>36</v>
+      </c>
+      <c r="AR29">
+        <v>30</v>
+      </c>
+      <c r="AS29">
+        <v>36</v>
+      </c>
+      <c r="AT29">
+        <v>21</v>
+      </c>
+      <c r="AU29">
+        <v>23</v>
+      </c>
+      <c r="AV29">
+        <v>27</v>
+      </c>
+      <c r="AW29">
+        <v>32</v>
+      </c>
+      <c r="AX29">
+        <v>42</v>
+      </c>
+      <c r="AY29">
+        <v>60</v>
+      </c>
+      <c r="AZ29">
         <v>13</v>
       </c>
-      <c r="AO29">
-        <v>17.5</v>
-      </c>
-      <c r="AP29">
-        <v>5.6</v>
-      </c>
-      <c r="AQ29">
-        <v>38</v>
-      </c>
-      <c r="AR29">
-        <v>5.7</v>
-      </c>
-      <c r="AS29">
-        <v>980</v>
-      </c>
-      <c r="AT29">
-        <v>5.3</v>
-      </c>
-      <c r="AU29">
-        <v>27</v>
-      </c>
-      <c r="AV29">
-        <v>5.5</v>
-      </c>
-      <c r="AW29">
-        <v>36</v>
-      </c>
-      <c r="AX29">
-        <v>6</v>
-      </c>
-      <c r="AY29">
-        <v>980</v>
-      </c>
-      <c r="AZ29">
-        <v>4.7</v>
-      </c>
       <c r="BA29">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="BB29">
-        <v>4.9</v>
+        <v>17</v>
       </c>
       <c r="BC29">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BD29">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="BE29">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF29">
         <v>33157618</v>
@@ -6737,79 +6707,79 @@
         <v>184</v>
       </c>
       <c r="F30">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G30">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I30">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J30">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K30">
         <v>3.05</v>
       </c>
       <c r="L30">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M30">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="N30">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="P30">
         <v>2.22</v>
       </c>
       <c r="Q30">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="R30">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S30">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="T30">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U30">
         <v>7.2</v>
       </c>
       <c r="V30">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="W30">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X30">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y30">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z30">
         <v>30</v>
       </c>
       <c r="AA30">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB30">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AD30">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE30">
         <v>7</v>
@@ -6818,16 +6788,16 @@
         <v>11.5</v>
       </c>
       <c r="AG30">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH30">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI30">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK30">
         <v>25</v>
@@ -6836,58 +6806,58 @@
         <v>16.5</v>
       </c>
       <c r="AM30">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AN30">
         <v>25</v>
       </c>
       <c r="AO30">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AP30">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AQ30">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AR30">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AS30">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AT30">
-        <v>9.6</v>
+        <v>36</v>
       </c>
       <c r="AU30">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AV30">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AW30">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AX30">
-        <v>9.800000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="AY30">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="AZ30">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="BA30">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="BB30">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="BC30">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BD30">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -6934,157 +6904,157 @@
         <v>185</v>
       </c>
       <c r="F31">
+        <v>1.73</v>
+      </c>
+      <c r="G31">
+        <v>1.75</v>
+      </c>
+      <c r="H31">
+        <v>5.9</v>
+      </c>
+      <c r="I31">
+        <v>6.2</v>
+      </c>
+      <c r="J31">
+        <v>3.75</v>
+      </c>
+      <c r="K31">
+        <v>3.9</v>
+      </c>
+      <c r="L31">
         <v>1.79</v>
       </c>
-      <c r="G31">
-        <v>1.89</v>
-      </c>
-      <c r="H31">
-        <v>5.2</v>
-      </c>
-      <c r="I31">
-        <v>5.8</v>
-      </c>
-      <c r="J31">
-        <v>3.5</v>
-      </c>
-      <c r="K31">
-        <v>3.8</v>
-      </c>
-      <c r="L31">
-        <v>1.7</v>
-      </c>
       <c r="M31">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="N31">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="O31">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="P31">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q31">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R31">
         <v>1.84</v>
       </c>
       <c r="S31">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="U31">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="V31">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="W31">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X31">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="Y31">
         <v>46</v>
       </c>
       <c r="Z31">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="AA31">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AB31">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC31">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD31">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AE31">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AF31">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AG31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH31">
-        <v>6.4</v>
+        <v>70</v>
       </c>
       <c r="AI31">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ31">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK31">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AL31">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM31">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AN31">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP31">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="AQ31">
         <v>110</v>
       </c>
       <c r="AR31">
+        <v>15.5</v>
+      </c>
+      <c r="AS31">
+        <v>18</v>
+      </c>
+      <c r="AT31">
+        <v>18</v>
+      </c>
+      <c r="AU31">
+        <v>21</v>
+      </c>
+      <c r="AV31">
+        <v>38</v>
+      </c>
+      <c r="AW31">
+        <v>46</v>
+      </c>
+      <c r="AX31">
+        <v>26</v>
+      </c>
+      <c r="AY31">
+        <v>170</v>
+      </c>
+      <c r="AZ31">
+        <v>7.2</v>
+      </c>
+      <c r="BA31">
+        <v>13</v>
+      </c>
+      <c r="BB31">
+        <v>85</v>
+      </c>
+      <c r="BC31">
+        <v>140</v>
+      </c>
+      <c r="BD31">
         <v>15</v>
-      </c>
-      <c r="AS31">
-        <v>21</v>
-      </c>
-      <c r="AT31">
-        <v>17</v>
-      </c>
-      <c r="AU31">
-        <v>23</v>
-      </c>
-      <c r="AV31">
-        <v>6</v>
-      </c>
-      <c r="AW31">
-        <v>50</v>
-      </c>
-      <c r="AX31">
-        <v>6.8</v>
-      </c>
-      <c r="AY31">
-        <v>980</v>
-      </c>
-      <c r="AZ31">
-        <v>4.8</v>
-      </c>
-      <c r="BA31">
-        <v>15</v>
-      </c>
-      <c r="BB31">
-        <v>6.6</v>
-      </c>
-      <c r="BC31">
-        <v>980</v>
-      </c>
-      <c r="BD31">
-        <v>7</v>
       </c>
       <c r="BE31">
         <v>1000</v>
@@ -7131,157 +7101,157 @@
         <v>186</v>
       </c>
       <c r="F32">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="G32">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="H32">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I32">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J32">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="K32">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M32">
         <v>1.57</v>
       </c>
       <c r="N32">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O32">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q32">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R32">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="S32">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="U32">
         <v>8.199999999999999</v>
       </c>
       <c r="V32">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="W32">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="X32">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Y32">
         <v>980</v>
       </c>
       <c r="Z32">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AA32">
         <v>980</v>
       </c>
       <c r="AB32">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AC32">
         <v>8</v>
       </c>
       <c r="AD32">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE32">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AF32">
-        <v>14.5</v>
+        <v>6.4</v>
       </c>
       <c r="AG32">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH32">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AI32">
         <v>980</v>
       </c>
       <c r="AJ32">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK32">
+        <v>16</v>
+      </c>
+      <c r="AL32">
+        <v>10</v>
+      </c>
+      <c r="AM32">
         <v>15</v>
       </c>
-      <c r="AL32">
-        <v>10.5</v>
-      </c>
-      <c r="AM32">
-        <v>14.5</v>
-      </c>
       <c r="AN32">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AO32">
         <v>980</v>
       </c>
       <c r="AP32">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AQ32">
         <v>980</v>
       </c>
       <c r="AR32">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="AS32">
         <v>980</v>
       </c>
       <c r="AT32">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AU32">
         <v>980</v>
       </c>
       <c r="AV32">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="AW32">
         <v>980</v>
       </c>
       <c r="AX32">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AY32">
         <v>980</v>
       </c>
       <c r="AZ32">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="BA32">
         <v>980</v>
       </c>
       <c r="BB32">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="BC32">
         <v>980</v>
       </c>
       <c r="BD32">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE32">
         <v>1000</v>
@@ -7328,76 +7298,76 @@
         <v>187</v>
       </c>
       <c r="F33">
+        <v>3.1</v>
+      </c>
+      <c r="G33">
+        <v>3.45</v>
+      </c>
+      <c r="H33">
+        <v>2.48</v>
+      </c>
+      <c r="I33">
+        <v>2.72</v>
+      </c>
+      <c r="J33">
         <v>3.15</v>
       </c>
-      <c r="G33">
-        <v>3.5</v>
-      </c>
-      <c r="H33">
-        <v>2.5</v>
-      </c>
-      <c r="I33">
-        <v>2.76</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
       <c r="K33">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L33">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="M33">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="N33">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="O33">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="Q33">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R33">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="S33">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="T33">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="U33">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V33">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="W33">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X33">
-        <v>5.7</v>
+        <v>13</v>
       </c>
       <c r="Y33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z33">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AA33">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB33">
-        <v>4.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC33">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD33">
         <v>6.4</v>
@@ -7406,79 +7376,79 @@
         <v>7.4</v>
       </c>
       <c r="AF33">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
       <c r="AG33">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH33">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AI33">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ33">
-        <v>6.2</v>
+        <v>16.5</v>
       </c>
       <c r="AK33">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL33">
-        <v>5.6</v>
+        <v>12.5</v>
       </c>
       <c r="AM33">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AN33">
-        <v>6.2</v>
+        <v>19</v>
       </c>
       <c r="AO33">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AP33">
-        <v>7.4</v>
+        <v>46</v>
       </c>
       <c r="AQ33">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AR33">
-        <v>7.4</v>
+        <v>48</v>
       </c>
       <c r="AS33">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AT33">
-        <v>7.2</v>
+        <v>28</v>
       </c>
       <c r="AU33">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AV33">
-        <v>7.6</v>
+        <v>48</v>
       </c>
       <c r="AW33">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AX33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AY33">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AZ33">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="BA33">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="BB33">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BC33">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="BD33">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -7525,121 +7495,121 @@
         <v>188</v>
       </c>
       <c r="F34">
+        <v>2.3</v>
+      </c>
+      <c r="G34">
+        <v>2.44</v>
+      </c>
+      <c r="H34">
+        <v>3.65</v>
+      </c>
+      <c r="I34">
+        <v>4.3</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>3.4</v>
+      </c>
+      <c r="L34">
+        <v>1.55</v>
+      </c>
+      <c r="M34">
+        <v>1.66</v>
+      </c>
+      <c r="N34">
+        <v>2.5</v>
+      </c>
+      <c r="O34">
+        <v>2.82</v>
+      </c>
+      <c r="P34">
         <v>2.1</v>
       </c>
-      <c r="G34">
-        <v>2.48</v>
-      </c>
-      <c r="H34">
-        <v>3.55</v>
-      </c>
-      <c r="I34">
-        <v>4.7</v>
-      </c>
-      <c r="J34">
-        <v>2.94</v>
-      </c>
-      <c r="K34">
-        <v>3.45</v>
-      </c>
-      <c r="L34">
-        <v>1.53</v>
-      </c>
-      <c r="M34">
-        <v>1.74</v>
-      </c>
-      <c r="N34">
-        <v>2.36</v>
-      </c>
-      <c r="O34">
-        <v>2.88</v>
-      </c>
-      <c r="P34">
-        <v>2</v>
-      </c>
       <c r="Q34">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R34">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U34">
         <v>980</v>
       </c>
       <c r="V34">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="W34">
         <v>980</v>
       </c>
       <c r="X34">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="Y34">
         <v>980</v>
       </c>
       <c r="Z34">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AA34">
         <v>1000</v>
       </c>
       <c r="AB34">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="AC34">
         <v>980</v>
       </c>
       <c r="AD34">
-        <v>2.88</v>
+        <v>6.2</v>
       </c>
       <c r="AE34">
         <v>980</v>
       </c>
       <c r="AF34">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AG34">
         <v>980</v>
       </c>
       <c r="AH34">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="AI34">
         <v>980</v>
       </c>
       <c r="AJ34">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="AK34">
         <v>980</v>
       </c>
       <c r="AL34">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM34">
         <v>980</v>
       </c>
       <c r="AN34">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO34">
         <v>980</v>
       </c>
       <c r="AP34">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AQ34">
         <v>1000</v>
       </c>
       <c r="AR34">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AS34">
         <v>980</v>
@@ -7657,25 +7627,25 @@
         <v>980</v>
       </c>
       <c r="AX34">
-        <v>2.86</v>
+        <v>4.4</v>
       </c>
       <c r="AY34">
         <v>1000</v>
       </c>
       <c r="AZ34">
-        <v>2.66</v>
+        <v>4</v>
       </c>
       <c r="BA34">
         <v>980</v>
       </c>
       <c r="BB34">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="BC34">
         <v>980</v>
       </c>
       <c r="BD34">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="BE34">
         <v>1000</v>
@@ -7722,10 +7692,10 @@
         <v>189</v>
       </c>
       <c r="F35">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H35">
         <v>1.45</v>
@@ -7734,64 +7704,64 @@
         <v>1.46</v>
       </c>
       <c r="J35">
+        <v>4.9</v>
+      </c>
+      <c r="K35">
         <v>5</v>
       </c>
-      <c r="K35">
-        <v>5.1</v>
-      </c>
       <c r="L35">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="M35">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="N35">
         <v>1.81</v>
       </c>
       <c r="O35">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="P35">
+        <v>2.04</v>
+      </c>
+      <c r="Q35">
         <v>2.06</v>
       </c>
-      <c r="Q35">
-        <v>2.14</v>
-      </c>
       <c r="R35">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T35">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="U35">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="V35">
         <v>8</v>
       </c>
       <c r="W35">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X35">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Y35">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z35">
         <v>11</v>
       </c>
       <c r="AA35">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB35">
         <v>27</v>
       </c>
       <c r="AC35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD35">
         <v>10</v>
@@ -7803,13 +7773,13 @@
         <v>9.4</v>
       </c>
       <c r="AG35">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH35">
+        <v>13.5</v>
+      </c>
+      <c r="AI35">
         <v>14</v>
-      </c>
-      <c r="AI35">
-        <v>14.5</v>
       </c>
       <c r="AJ35">
         <v>65</v>
@@ -7827,49 +7797,49 @@
         <v>24</v>
       </c>
       <c r="AO35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP35">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ35">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AR35">
         <v>110</v>
       </c>
       <c r="AS35">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="AT35">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AU35">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AV35">
         <v>100</v>
       </c>
       <c r="AW35">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AX35">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AY35">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AZ35">
         <v>100</v>
       </c>
       <c r="BA35">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="BB35">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BC35">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BD35">
         <v>330</v>
@@ -7919,10 +7889,10 @@
         <v>190</v>
       </c>
       <c r="F36">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G36">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H36">
         <v>7.6</v>
@@ -7931,145 +7901,145 @@
         <v>8.4</v>
       </c>
       <c r="J36">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L36">
+        <v>2.42</v>
+      </c>
+      <c r="M36">
+        <v>2.5</v>
+      </c>
+      <c r="N36">
+        <v>1.67</v>
+      </c>
+      <c r="O36">
+        <v>1.7</v>
+      </c>
+      <c r="P36">
+        <v>1.84</v>
+      </c>
+      <c r="Q36">
+        <v>1.95</v>
+      </c>
+      <c r="R36">
+        <v>2.06</v>
+      </c>
+      <c r="S36">
         <v>2.18</v>
       </c>
-      <c r="M36">
-        <v>2.42</v>
-      </c>
-      <c r="N36">
-        <v>1.71</v>
-      </c>
-      <c r="O36">
-        <v>1.85</v>
-      </c>
-      <c r="P36">
-        <v>1.93</v>
-      </c>
-      <c r="Q36">
-        <v>2.04</v>
-      </c>
-      <c r="R36">
-        <v>1.96</v>
-      </c>
-      <c r="S36">
-        <v>2.08</v>
-      </c>
       <c r="T36">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="U36">
+        <v>21</v>
+      </c>
+      <c r="V36">
+        <v>26</v>
+      </c>
+      <c r="W36">
+        <v>30</v>
+      </c>
+      <c r="X36">
+        <v>50</v>
+      </c>
+      <c r="Y36">
+        <v>70</v>
+      </c>
+      <c r="Z36">
+        <v>17.5</v>
+      </c>
+      <c r="AA36">
+        <v>290</v>
+      </c>
+      <c r="AB36">
+        <v>9</v>
+      </c>
+      <c r="AC36">
+        <v>10</v>
+      </c>
+      <c r="AD36">
+        <v>10</v>
+      </c>
+      <c r="AE36">
+        <v>11.5</v>
+      </c>
+      <c r="AF36">
+        <v>25</v>
+      </c>
+      <c r="AG36">
+        <v>29</v>
+      </c>
+      <c r="AH36">
+        <v>85</v>
+      </c>
+      <c r="AI36">
+        <v>190</v>
+      </c>
+      <c r="AJ36">
+        <v>8.4</v>
+      </c>
+      <c r="AK36">
+        <v>9.6</v>
+      </c>
+      <c r="AL36">
+        <v>9.4</v>
+      </c>
+      <c r="AM36">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AN36">
+        <v>20</v>
+      </c>
+      <c r="AO36">
         <v>23</v>
       </c>
-      <c r="V36">
-        <v>19.5</v>
-      </c>
-      <c r="W36">
-        <v>34</v>
-      </c>
-      <c r="X36">
-        <v>5.2</v>
-      </c>
-      <c r="Y36">
-        <v>85</v>
-      </c>
-      <c r="Z36">
-        <v>5.4</v>
-      </c>
-      <c r="AA36">
-        <v>980</v>
-      </c>
-      <c r="AB36">
-        <v>7</v>
-      </c>
-      <c r="AC36">
-        <v>11</v>
-      </c>
-      <c r="AD36">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE36">
-        <v>13.5</v>
-      </c>
-      <c r="AF36">
-        <v>20</v>
-      </c>
-      <c r="AG36">
-        <v>36</v>
-      </c>
-      <c r="AH36">
-        <v>5.3</v>
-      </c>
-      <c r="AI36">
-        <v>980</v>
-      </c>
-      <c r="AJ36">
-        <v>6.8</v>
-      </c>
-      <c r="AK36">
-        <v>9.4</v>
-      </c>
-      <c r="AL36">
-        <v>7.4</v>
-      </c>
-      <c r="AM36">
-        <v>12</v>
-      </c>
-      <c r="AN36">
-        <v>17.5</v>
-      </c>
-      <c r="AO36">
-        <v>30</v>
-      </c>
       <c r="AP36">
-        <v>5.3</v>
+        <v>70</v>
       </c>
       <c r="AQ36">
         <v>120</v>
       </c>
       <c r="AR36">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AS36">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AT36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU36">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AV36">
-        <v>4.9</v>
+        <v>28</v>
       </c>
       <c r="AW36">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AX36">
-        <v>5.3</v>
+        <v>75</v>
       </c>
       <c r="AY36">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AZ36">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="BA36">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="BB36">
-        <v>5.3</v>
+        <v>16.5</v>
       </c>
       <c r="BC36">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="BD36">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="BE36">
         <v>1000</v>
@@ -8116,157 +8086,157 @@
         <v>191</v>
       </c>
       <c r="F37">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="G37">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="H37">
+        <v>3.4</v>
+      </c>
+      <c r="I37">
+        <v>3.65</v>
+      </c>
+      <c r="J37">
+        <v>3.1</v>
+      </c>
+      <c r="K37">
         <v>3.3</v>
-      </c>
-      <c r="I37">
-        <v>3.75</v>
-      </c>
-      <c r="J37">
-        <v>3.35</v>
-      </c>
-      <c r="K37">
-        <v>3.6</v>
       </c>
       <c r="L37">
         <v>1.74</v>
       </c>
       <c r="M37">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="N37">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="O37">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="P37">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q37">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="R37">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T37">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V37">
+        <v>10</v>
+      </c>
+      <c r="W37">
+        <v>14.5</v>
+      </c>
+      <c r="X37">
+        <v>4.3</v>
+      </c>
+      <c r="Y37">
+        <v>28</v>
+      </c>
+      <c r="Z37">
+        <v>4.6</v>
+      </c>
+      <c r="AA37">
+        <v>980</v>
+      </c>
+      <c r="AB37">
+        <v>7.6</v>
+      </c>
+      <c r="AC37">
+        <v>11.5</v>
+      </c>
+      <c r="AD37">
+        <v>6.4</v>
+      </c>
+      <c r="AE37">
+        <v>7.6</v>
+      </c>
+      <c r="AF37">
+        <v>12.5</v>
+      </c>
+      <c r="AG37">
+        <v>18</v>
+      </c>
+      <c r="AH37">
+        <v>4.5</v>
+      </c>
+      <c r="AI37">
+        <v>980</v>
+      </c>
+      <c r="AJ37">
+        <v>10</v>
+      </c>
+      <c r="AK37">
+        <v>18</v>
+      </c>
+      <c r="AL37">
         <v>9.199999999999999</v>
       </c>
-      <c r="W37">
-        <v>15</v>
-      </c>
-      <c r="X37">
-        <v>17.5</v>
-      </c>
-      <c r="Y37">
+      <c r="AM37">
+        <v>14.5</v>
+      </c>
+      <c r="AN37">
+        <v>4.4</v>
+      </c>
+      <c r="AO37">
+        <v>23</v>
+      </c>
+      <c r="AP37">
+        <v>4.6</v>
+      </c>
+      <c r="AQ37">
+        <v>980</v>
+      </c>
+      <c r="AR37">
+        <v>4.4</v>
+      </c>
+      <c r="AS37">
+        <v>980</v>
+      </c>
+      <c r="AT37">
+        <v>4.3</v>
+      </c>
+      <c r="AU37">
+        <v>980</v>
+      </c>
+      <c r="AV37">
+        <v>4.5</v>
+      </c>
+      <c r="AW37">
+        <v>980</v>
+      </c>
+      <c r="AX37">
+        <v>4.7</v>
+      </c>
+      <c r="AY37">
+        <v>980</v>
+      </c>
+      <c r="AZ37">
+        <v>4.2</v>
+      </c>
+      <c r="BA37">
         <v>29</v>
       </c>
-      <c r="Z37">
-        <v>4.4</v>
-      </c>
-      <c r="AA37">
-        <v>980</v>
-      </c>
-      <c r="AB37">
-        <v>8</v>
-      </c>
-      <c r="AC37">
-        <v>980</v>
-      </c>
-      <c r="AD37">
-        <v>6.8</v>
-      </c>
-      <c r="AE37">
-        <v>9.6</v>
-      </c>
-      <c r="AF37">
-        <v>3.75</v>
-      </c>
-      <c r="AG37">
-        <v>18.5</v>
-      </c>
-      <c r="AH37">
-        <v>4.3</v>
-      </c>
-      <c r="AI37">
-        <v>980</v>
-      </c>
-      <c r="AJ37">
-        <v>3.65</v>
-      </c>
-      <c r="AK37">
-        <v>17</v>
-      </c>
-      <c r="AL37">
-        <v>3.5</v>
-      </c>
-      <c r="AM37">
-        <v>14</v>
-      </c>
-      <c r="AN37">
-        <v>3.9</v>
-      </c>
-      <c r="AO37">
-        <v>24</v>
-      </c>
-      <c r="AP37">
-        <v>4.4</v>
-      </c>
-      <c r="AQ37">
-        <v>980</v>
-      </c>
-      <c r="AR37">
-        <v>4.2</v>
-      </c>
-      <c r="AS37">
-        <v>980</v>
-      </c>
-      <c r="AT37">
-        <v>19.5</v>
-      </c>
-      <c r="AU37">
-        <v>34</v>
-      </c>
-      <c r="AV37">
-        <v>4.3</v>
-      </c>
-      <c r="AW37">
-        <v>980</v>
-      </c>
-      <c r="AX37">
+      <c r="BB37">
         <v>4.5</v>
       </c>
-      <c r="AY37">
-        <v>980</v>
-      </c>
-      <c r="AZ37">
-        <v>4</v>
-      </c>
-      <c r="BA37">
-        <v>27</v>
-      </c>
-      <c r="BB37">
-        <v>4.3</v>
-      </c>
       <c r="BC37">
         <v>980</v>
       </c>
       <c r="BD37">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="BE37">
         <v>1000</v>
@@ -8313,163 +8283,163 @@
         <v>192</v>
       </c>
       <c r="F38">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G38">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="H38">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I38">
         <v>3.65</v>
       </c>
       <c r="J38">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="K38">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L38">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="M38">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="N38">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="O38">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="P38">
-        <v>1.14</v>
+        <v>1.86</v>
       </c>
       <c r="Q38">
-        <v>9.4</v>
+        <v>2.02</v>
       </c>
       <c r="R38">
-        <v>1.14</v>
+        <v>1.98</v>
       </c>
       <c r="S38">
-        <v>9.4</v>
+        <v>2.16</v>
       </c>
       <c r="T38">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="U38">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="V38">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="W38">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="X38">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="Y38">
+        <v>28</v>
+      </c>
+      <c r="Z38">
+        <v>4.6</v>
+      </c>
+      <c r="AA38">
+        <v>75</v>
+      </c>
+      <c r="AB38">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC38">
+        <v>11.5</v>
+      </c>
+      <c r="AD38">
+        <v>6.8</v>
+      </c>
+      <c r="AE38">
+        <v>8</v>
+      </c>
+      <c r="AF38">
+        <v>4.1</v>
+      </c>
+      <c r="AG38">
+        <v>18</v>
+      </c>
+      <c r="AH38">
+        <v>4.5</v>
+      </c>
+      <c r="AI38">
+        <v>55</v>
+      </c>
+      <c r="AJ38">
+        <v>12.5</v>
+      </c>
+      <c r="AK38">
+        <v>17.5</v>
+      </c>
+      <c r="AL38">
+        <v>10</v>
+      </c>
+      <c r="AM38">
+        <v>14.5</v>
+      </c>
+      <c r="AN38">
+        <v>4.3</v>
+      </c>
+      <c r="AO38">
         <v>24</v>
       </c>
-      <c r="Z38">
-        <v>4</v>
-      </c>
-      <c r="AA38">
-        <v>65</v>
-      </c>
-      <c r="AB38">
-        <v>3.15</v>
-      </c>
-      <c r="AC38">
-        <v>980</v>
-      </c>
-      <c r="AD38">
-        <v>2.94</v>
-      </c>
-      <c r="AE38">
-        <v>980</v>
-      </c>
-      <c r="AF38">
-        <v>3.45</v>
-      </c>
-      <c r="AG38">
-        <v>980</v>
-      </c>
-      <c r="AH38">
-        <v>3.95</v>
-      </c>
-      <c r="AI38">
-        <v>46</v>
-      </c>
-      <c r="AJ38">
-        <v>3.55</v>
-      </c>
-      <c r="AK38">
-        <v>20</v>
-      </c>
-      <c r="AL38">
-        <v>3.35</v>
-      </c>
-      <c r="AM38">
-        <v>980</v>
-      </c>
-      <c r="AN38">
-        <v>3.65</v>
-      </c>
-      <c r="AO38">
-        <v>980</v>
-      </c>
       <c r="AP38">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AQ38">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AR38">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="AS38">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AT38">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="AU38">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AV38">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AW38">
         <v>60</v>
       </c>
       <c r="AX38">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AY38">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AZ38">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="BA38">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="BB38">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="BC38">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="BD38">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="BE38">
         <v>1000</v>
       </c>
-      <c r="BF38" t="s">
-        <v>200</v>
+      <c r="BF38">
+        <v>33157839</v>
       </c>
       <c r="BG38">
         <v>44796</v>
@@ -8480,17 +8450,17 @@
       <c r="BI38">
         <v>58805</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>202</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>204</v>
-      </c>
-      <c r="BL38" t="s">
-        <v>206</v>
-      </c>
-      <c r="BM38" t="s">
-        <v>208</v>
+      <c r="BJ38">
+        <v>1.227305352</v>
+      </c>
+      <c r="BK38">
+        <v>1.227305355</v>
+      </c>
+      <c r="BL38">
+        <v>1.227305399</v>
+      </c>
+      <c r="BM38">
+        <v>1.2273054</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -8510,157 +8480,157 @@
         <v>193</v>
       </c>
       <c r="F39">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="G39">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="I39">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="J39">
         <v>3.1</v>
       </c>
       <c r="K39">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L39">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M39">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="N39">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O39">
         <v>2.54</v>
       </c>
       <c r="P39">
+        <v>2.02</v>
+      </c>
+      <c r="Q39">
+        <v>2.04</v>
+      </c>
+      <c r="R39">
+        <v>1.96</v>
+      </c>
+      <c r="S39">
         <v>1.97</v>
-      </c>
-      <c r="Q39">
-        <v>2.08</v>
-      </c>
-      <c r="R39">
-        <v>1.94</v>
-      </c>
-      <c r="S39">
-        <v>2.04</v>
       </c>
       <c r="T39">
         <v>8.6</v>
       </c>
       <c r="U39">
+        <v>9</v>
+      </c>
+      <c r="V39">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="W39">
         <v>9.4</v>
       </c>
-      <c r="V39">
-        <v>9.4</v>
-      </c>
-      <c r="W39">
-        <v>10.5</v>
-      </c>
       <c r="X39">
+        <v>16</v>
+      </c>
+      <c r="Y39">
         <v>17.5</v>
       </c>
-      <c r="Y39">
-        <v>19.5</v>
-      </c>
       <c r="Z39">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AA39">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB39">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC39">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD39">
         <v>6.4</v>
       </c>
       <c r="AE39">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AF39">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG39">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH39">
         <v>36</v>
       </c>
       <c r="AI39">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ39">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AK39">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL39">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM39">
         <v>13</v>
       </c>
       <c r="AN39">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO39">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP39">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AQ39">
         <v>65</v>
       </c>
       <c r="AR39">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AS39">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AT39">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AU39">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AV39">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AW39">
         <v>60</v>
       </c>
       <c r="AX39">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AY39">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AZ39">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="BA39">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BB39">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="BC39">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="BD39">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="BE39">
         <v>1000</v>
@@ -8707,157 +8677,157 @@
         <v>194</v>
       </c>
       <c r="F40">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G40">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H40">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="I40">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>5.6</v>
+      </c>
+      <c r="L40">
+        <v>2.04</v>
+      </c>
+      <c r="M40">
+        <v>2.12</v>
+      </c>
+      <c r="N40">
+        <v>1.9</v>
+      </c>
+      <c r="O40">
+        <v>1.96</v>
+      </c>
+      <c r="P40">
+        <v>2.28</v>
+      </c>
+      <c r="Q40">
+        <v>2.46</v>
+      </c>
+      <c r="R40">
+        <v>1.68</v>
+      </c>
+      <c r="S40">
+        <v>1.78</v>
+      </c>
+      <c r="T40">
+        <v>14</v>
+      </c>
+      <c r="U40">
+        <v>18</v>
+      </c>
+      <c r="V40">
+        <v>25</v>
+      </c>
+      <c r="W40">
+        <v>980</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Y40">
+        <v>980</v>
+      </c>
+      <c r="Z40">
+        <v>10.5</v>
+      </c>
+      <c r="AA40">
+        <v>980</v>
+      </c>
+      <c r="AB40">
+        <v>6.6</v>
+      </c>
+      <c r="AC40">
+        <v>7.6</v>
+      </c>
+      <c r="AD40">
+        <v>10.5</v>
+      </c>
+      <c r="AE40">
+        <v>12.5</v>
+      </c>
+      <c r="AF40">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG40">
+        <v>980</v>
+      </c>
+      <c r="AH40">
+        <v>10.5</v>
+      </c>
+      <c r="AI40">
+        <v>980</v>
+      </c>
+      <c r="AJ40">
+        <v>6.6</v>
+      </c>
+      <c r="AK40">
+        <v>7.4</v>
+      </c>
+      <c r="AL40">
+        <v>9.4</v>
+      </c>
+      <c r="AM40">
+        <v>11</v>
+      </c>
+      <c r="AN40">
+        <v>25</v>
+      </c>
+      <c r="AO40">
+        <v>38</v>
+      </c>
+      <c r="AP40">
+        <v>10</v>
+      </c>
+      <c r="AQ40">
+        <v>980</v>
+      </c>
+      <c r="AR40">
+        <v>9.6</v>
+      </c>
+      <c r="AS40">
+        <v>12</v>
+      </c>
+      <c r="AT40">
+        <v>14</v>
+      </c>
+      <c r="AU40">
+        <v>16.5</v>
+      </c>
+      <c r="AV40">
+        <v>32</v>
+      </c>
+      <c r="AW40">
+        <v>980</v>
+      </c>
+      <c r="AX40">
+        <v>10.5</v>
+      </c>
+      <c r="AY40">
+        <v>980</v>
+      </c>
+      <c r="AZ40">
         <v>4.2</v>
       </c>
-      <c r="K40">
-        <v>7.4</v>
-      </c>
-      <c r="L40">
-        <v>1.6</v>
-      </c>
-      <c r="M40">
-        <v>2.9</v>
-      </c>
-      <c r="N40">
-        <v>1.53</v>
-      </c>
-      <c r="O40">
-        <v>2.68</v>
-      </c>
-      <c r="P40">
-        <v>2.16</v>
-      </c>
-      <c r="Q40">
-        <v>2.32</v>
-      </c>
-      <c r="R40">
-        <v>1.75</v>
-      </c>
-      <c r="S40">
-        <v>1.86</v>
-      </c>
-      <c r="T40">
-        <v>1.01</v>
-      </c>
-      <c r="U40">
-        <v>1000</v>
-      </c>
-      <c r="V40">
-        <v>1.01</v>
-      </c>
-      <c r="W40">
-        <v>1000</v>
-      </c>
-      <c r="X40">
-        <v>1.01</v>
-      </c>
-      <c r="Y40">
-        <v>1000</v>
-      </c>
-      <c r="Z40">
-        <v>1.01</v>
-      </c>
-      <c r="AA40">
-        <v>1000</v>
-      </c>
-      <c r="AB40">
-        <v>1.01</v>
-      </c>
-      <c r="AC40">
-        <v>1000</v>
-      </c>
-      <c r="AD40">
-        <v>1.01</v>
-      </c>
-      <c r="AE40">
-        <v>1000</v>
-      </c>
-      <c r="AF40">
-        <v>1.01</v>
-      </c>
-      <c r="AG40">
-        <v>1000</v>
-      </c>
-      <c r="AH40">
-        <v>1.03</v>
-      </c>
-      <c r="AI40">
-        <v>1000</v>
-      </c>
-      <c r="AJ40">
-        <v>1.01</v>
-      </c>
-      <c r="AK40">
-        <v>1000</v>
-      </c>
-      <c r="AL40">
-        <v>1.01</v>
-      </c>
-      <c r="AM40">
-        <v>1000</v>
-      </c>
-      <c r="AN40">
-        <v>1.01</v>
-      </c>
-      <c r="AO40">
-        <v>1000</v>
-      </c>
-      <c r="AP40">
-        <v>1.01</v>
-      </c>
-      <c r="AQ40">
-        <v>1000</v>
-      </c>
-      <c r="AR40">
-        <v>1.01</v>
-      </c>
-      <c r="AS40">
-        <v>1000</v>
-      </c>
-      <c r="AT40">
-        <v>1.01</v>
-      </c>
-      <c r="AU40">
-        <v>1000</v>
-      </c>
-      <c r="AV40">
-        <v>1.01</v>
-      </c>
-      <c r="AW40">
-        <v>1000</v>
-      </c>
-      <c r="AX40">
-        <v>10</v>
-      </c>
-      <c r="AY40">
-        <v>1000</v>
-      </c>
-      <c r="AZ40">
-        <v>1.01</v>
-      </c>
       <c r="BA40">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="BB40">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="BC40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD40">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="BE40">
         <v>1000</v>
@@ -8904,67 +8874,67 @@
         <v>195</v>
       </c>
       <c r="F41">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G41">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H41">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I41">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J41">
         <v>3.3</v>
       </c>
       <c r="K41">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L41">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="M41">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="N41">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="O41">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="P41">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="Q41">
         <v>1.95</v>
       </c>
       <c r="R41">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S41">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="T41">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U41">
         <v>980</v>
       </c>
       <c r="V41">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="W41">
         <v>980</v>
       </c>
       <c r="X41">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y41">
         <v>980</v>
       </c>
       <c r="Z41">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AA41">
         <v>980</v>
@@ -8973,22 +8943,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC41">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AD41">
         <v>6.8</v>
       </c>
       <c r="AE41">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AF41">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AG41">
         <v>980</v>
       </c>
       <c r="AH41">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI41">
         <v>980</v>
@@ -9003,10 +8973,10 @@
         <v>9.6</v>
       </c>
       <c r="AM41">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AN41">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AO41">
         <v>980</v>
@@ -9018,43 +8988,43 @@
         <v>980</v>
       </c>
       <c r="AR41">
+        <v>5.6</v>
+      </c>
+      <c r="AS41">
+        <v>980</v>
+      </c>
+      <c r="AT41">
         <v>5.8</v>
       </c>
-      <c r="AS41">
-        <v>980</v>
-      </c>
-      <c r="AT41">
-        <v>5.5</v>
-      </c>
       <c r="AU41">
         <v>980</v>
       </c>
       <c r="AV41">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AW41">
         <v>980</v>
       </c>
       <c r="AX41">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AY41">
         <v>980</v>
       </c>
       <c r="AZ41">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="BA41">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BB41">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="BC41">
         <v>980</v>
       </c>
       <c r="BD41">
-        <v>3.45</v>
+        <v>6.6</v>
       </c>
       <c r="BE41">
         <v>1000</v>
@@ -9101,34 +9071,34 @@
         <v>196</v>
       </c>
       <c r="F42">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="G42">
-        <v>480</v>
+        <v>2.26</v>
       </c>
       <c r="H42">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="I42">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J42">
-        <v>1.2</v>
+        <v>2.34</v>
       </c>
       <c r="K42">
         <v>950</v>
       </c>
       <c r="L42">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>2.24</v>
       </c>
       <c r="N42">
-        <v>1.06</v>
+        <v>1.81</v>
       </c>
       <c r="O42">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="P42">
         <v>1.14</v>
@@ -9203,7 +9173,7 @@
         <v>1000</v>
       </c>
       <c r="AN42">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AO42">
         <v>1000</v>
@@ -9256,8 +9226,8 @@
       <c r="BE42">
         <v>1000</v>
       </c>
-      <c r="BF42" t="s">
-        <v>201</v>
+      <c r="BF42">
+        <v>33174050</v>
       </c>
       <c r="BG42">
         <v>8764586</v>
@@ -9268,17 +9238,17 @@
       <c r="BI42">
         <v>58805</v>
       </c>
-      <c r="BJ42" t="s">
-        <v>203</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL42" t="s">
-        <v>207</v>
-      </c>
-      <c r="BM42" t="s">
-        <v>209</v>
+      <c r="BJ42">
+        <v>1.227299536</v>
+      </c>
+      <c r="BK42">
+        <v>1.227299539</v>
+      </c>
+      <c r="BL42">
+        <v>1.227299583</v>
+      </c>
+      <c r="BM42">
+        <v>1.227299584</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -9298,25 +9268,25 @@
         <v>197</v>
       </c>
       <c r="F43">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G43">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="H43">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I43">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J43">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K43">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="M43">
         <v>1.64</v>
@@ -9325,88 +9295,88 @@
         <v>2.56</v>
       </c>
       <c r="O43">
-        <v>2.98</v>
+        <v>2.64</v>
       </c>
       <c r="P43">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q43">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="R43">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S43">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="T43">
+        <v>9</v>
+      </c>
+      <c r="U43">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="V43">
+        <v>15.5</v>
+      </c>
+      <c r="W43">
+        <v>17</v>
+      </c>
+      <c r="X43">
+        <v>15.5</v>
+      </c>
+      <c r="Y43">
+        <v>60</v>
+      </c>
+      <c r="Z43">
+        <v>13.5</v>
+      </c>
+      <c r="AA43">
+        <v>280</v>
+      </c>
+      <c r="AB43">
+        <v>5.5</v>
+      </c>
+      <c r="AC43">
+        <v>6.6</v>
+      </c>
+      <c r="AD43">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE43">
+        <v>9</v>
+      </c>
+      <c r="AF43">
+        <v>27</v>
+      </c>
+      <c r="AG43">
+        <v>30</v>
+      </c>
+      <c r="AH43">
+        <v>13</v>
+      </c>
+      <c r="AI43">
+        <v>980</v>
+      </c>
+      <c r="AJ43">
         <v>7.2</v>
       </c>
-      <c r="U43">
-        <v>9.6</v>
-      </c>
-      <c r="V43">
-        <v>14</v>
-      </c>
-      <c r="W43">
-        <v>18</v>
-      </c>
-      <c r="X43">
-        <v>6.8</v>
-      </c>
-      <c r="Y43">
-        <v>65</v>
-      </c>
-      <c r="Z43">
-        <v>7.4</v>
-      </c>
-      <c r="AA43">
-        <v>980</v>
-      </c>
-      <c r="AB43">
-        <v>5.2</v>
-      </c>
-      <c r="AC43">
-        <v>6.2</v>
-      </c>
-      <c r="AD43">
-        <v>7.8</v>
-      </c>
-      <c r="AE43">
+      <c r="AK43">
+        <v>8</v>
+      </c>
+      <c r="AL43">
         <v>9.800000000000001</v>
       </c>
-      <c r="AF43">
-        <v>6.4</v>
-      </c>
-      <c r="AG43">
-        <v>36</v>
-      </c>
-      <c r="AH43">
-        <v>7.2</v>
-      </c>
-      <c r="AI43">
-        <v>980</v>
-      </c>
-      <c r="AJ43">
-        <v>6.4</v>
-      </c>
-      <c r="AK43">
-        <v>8.6</v>
-      </c>
-      <c r="AL43">
-        <v>9.6</v>
-      </c>
       <c r="AM43">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AN43">
-        <v>6.4</v>
+        <v>29</v>
       </c>
       <c r="AO43">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AP43">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AQ43">
         <v>980</v>
@@ -9415,40 +9385,40 @@
         <v>14</v>
       </c>
       <c r="AS43">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AT43">
         <v>19.5</v>
       </c>
       <c r="AU43">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AV43">
-        <v>6.8</v>
+        <v>38</v>
       </c>
       <c r="AW43">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AX43">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AY43">
         <v>980</v>
       </c>
       <c r="AZ43">
-        <v>5.3</v>
+        <v>13.5</v>
       </c>
       <c r="BA43">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="BB43">
-        <v>7.4</v>
+        <v>23</v>
       </c>
       <c r="BC43">
         <v>980</v>
       </c>
       <c r="BD43">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="BE43">
         <v>1000</v>
@@ -9498,43 +9468,43 @@
         <v>2.08</v>
       </c>
       <c r="G44">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="H44">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J44">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="K44">
         <v>3.2</v>
       </c>
       <c r="L44">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M44">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="N44">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O44">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="P44">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q44">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R44">
         <v>1.66</v>
       </c>
       <c r="S44">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="T44">
         <v>6.8</v>
@@ -9546,49 +9516,49 @@
         <v>10</v>
       </c>
       <c r="W44">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X44">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="Y44">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z44">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="AA44">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AB44">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AC44">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AD44">
         <v>6.6</v>
       </c>
       <c r="AE44">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF44">
-        <v>5.7</v>
+        <v>19</v>
       </c>
       <c r="AG44">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH44">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="AI44">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ44">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AK44">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL44">
         <v>10.5</v>
@@ -9597,55 +9567,55 @@
         <v>12.5</v>
       </c>
       <c r="AN44">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AO44">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AP44">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="AQ44">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AR44">
-        <v>5.9</v>
+        <v>22</v>
       </c>
       <c r="AS44">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AT44">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AU44">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AV44">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="AW44">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AX44">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="AY44">
         <v>980</v>
       </c>
       <c r="AZ44">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="BA44">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BB44">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="BC44">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="BD44">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="BE44">
         <v>1000</v>
@@ -9692,34 +9662,34 @@
         <v>199</v>
       </c>
       <c r="F45">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G45">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H45">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="I45">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="J45">
         <v>3.35</v>
       </c>
       <c r="K45">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L45">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="M45">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="N45">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="O45">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="P45">
         <v>1.84</v>
@@ -9734,115 +9704,115 @@
         <v>2.2</v>
       </c>
       <c r="T45">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U45">
         <v>13</v>
       </c>
       <c r="V45">
-        <v>3.9</v>
+        <v>7.8</v>
       </c>
       <c r="W45">
         <v>9.6</v>
       </c>
       <c r="X45">
-        <v>4.6</v>
+        <v>12</v>
       </c>
       <c r="Y45">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z45">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AA45">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB45">
-        <v>4.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC45">
+        <v>12.5</v>
+      </c>
+      <c r="AD45">
+        <v>7</v>
+      </c>
+      <c r="AE45">
+        <v>8.4</v>
+      </c>
+      <c r="AF45">
+        <v>10</v>
+      </c>
+      <c r="AG45">
         <v>13</v>
       </c>
-      <c r="AD45">
-        <v>6.6</v>
-      </c>
-      <c r="AE45">
-        <v>9</v>
-      </c>
-      <c r="AF45">
-        <v>4.3</v>
-      </c>
-      <c r="AG45">
-        <v>12.5</v>
-      </c>
       <c r="AH45">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="AI45">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ45">
-        <v>5.2</v>
+        <v>17</v>
       </c>
       <c r="AK45">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL45">
         <v>11.5</v>
       </c>
       <c r="AM45">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN45">
-        <v>5.2</v>
+        <v>17</v>
       </c>
       <c r="AO45">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP45">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AQ45">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR45">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AS45">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AT45">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AU45">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AV45">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AW45">
         <v>65</v>
       </c>
       <c r="AX45">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AY45">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AZ45">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="BA45">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BB45">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="BC45">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD45">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BE45">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-08.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-08.xlsx
@@ -8677,157 +8677,157 @@
         <v>194</v>
       </c>
       <c r="F40">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="G40">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="H40">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I40">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="K40">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="L40">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="M40">
-        <v>2.12</v>
+        <v>1.82</v>
       </c>
       <c r="N40">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="O40">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="P40">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q40">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="R40">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="S40">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="T40">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U40">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="V40">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="W40">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="X40">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="Y40">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="Z40">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AA40">
-        <v>980</v>
+        <v>460</v>
       </c>
       <c r="AB40">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AC40">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD40">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AE40">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AF40">
-        <v>9.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="AG40">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AH40">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI40">
-        <v>980</v>
+        <v>320</v>
       </c>
       <c r="AJ40">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AK40">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AL40">
         <v>9.4</v>
       </c>
       <c r="AM40">
+        <v>10.5</v>
+      </c>
+      <c r="AN40">
+        <v>27</v>
+      </c>
+      <c r="AO40">
+        <v>32</v>
+      </c>
+      <c r="AP40">
+        <v>15.5</v>
+      </c>
+      <c r="AQ40">
+        <v>190</v>
+      </c>
+      <c r="AR40">
+        <v>12</v>
+      </c>
+      <c r="AS40">
+        <v>13.5</v>
+      </c>
+      <c r="AT40">
+        <v>17.5</v>
+      </c>
+      <c r="AU40">
+        <v>19.5</v>
+      </c>
+      <c r="AV40">
+        <v>46</v>
+      </c>
+      <c r="AW40">
+        <v>55</v>
+      </c>
+      <c r="AX40">
+        <v>140</v>
+      </c>
+      <c r="AY40">
+        <v>320</v>
+      </c>
+      <c r="AZ40">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA40">
         <v>11</v>
       </c>
-      <c r="AN40">
-        <v>25</v>
-      </c>
-      <c r="AO40">
-        <v>38</v>
-      </c>
-      <c r="AP40">
-        <v>10</v>
-      </c>
-      <c r="AQ40">
-        <v>980</v>
-      </c>
-      <c r="AR40">
-        <v>9.6</v>
-      </c>
-      <c r="AS40">
-        <v>12</v>
-      </c>
-      <c r="AT40">
-        <v>14</v>
-      </c>
-      <c r="AU40">
-        <v>16.5</v>
-      </c>
-      <c r="AV40">
-        <v>32</v>
-      </c>
-      <c r="AW40">
-        <v>980</v>
-      </c>
-      <c r="AX40">
-        <v>10.5</v>
-      </c>
-      <c r="AY40">
-        <v>980</v>
-      </c>
-      <c r="AZ40">
-        <v>4.2</v>
-      </c>
-      <c r="BA40">
-        <v>6.8</v>
-      </c>
       <c r="BB40">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BC40">
-        <v>980</v>
+        <v>330</v>
       </c>
       <c r="BD40">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="BE40">
         <v>1000</v>
@@ -8874,28 +8874,28 @@
         <v>195</v>
       </c>
       <c r="F41">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="G41">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="H41">
+        <v>3.05</v>
+      </c>
+      <c r="I41">
+        <v>3.2</v>
+      </c>
+      <c r="J41">
         <v>3.4</v>
       </c>
-      <c r="I41">
-        <v>3.6</v>
-      </c>
-      <c r="J41">
-        <v>3.3</v>
-      </c>
       <c r="K41">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L41">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="M41">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="N41">
         <v>1.96</v>
@@ -8907,31 +8907,31 @@
         <v>1.74</v>
       </c>
       <c r="Q41">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R41">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S41">
         <v>2.34</v>
       </c>
       <c r="T41">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U41">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="V41">
         <v>4.9</v>
       </c>
       <c r="W41">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="X41">
         <v>5.3</v>
       </c>
       <c r="Y41">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z41">
         <v>6</v>
@@ -8940,10 +8940,10 @@
         <v>980</v>
       </c>
       <c r="AB41">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC41">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD41">
         <v>6.8</v>
@@ -8952,73 +8952,73 @@
         <v>8.6</v>
       </c>
       <c r="AF41">
-        <v>4.7</v>
+        <v>11.5</v>
       </c>
       <c r="AG41">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH41">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AI41">
         <v>980</v>
       </c>
       <c r="AJ41">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AK41">
         <v>980</v>
       </c>
       <c r="AL41">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM41">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN41">
-        <v>4.9</v>
+        <v>14.5</v>
       </c>
       <c r="AO41">
         <v>980</v>
       </c>
       <c r="AP41">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AQ41">
         <v>980</v>
       </c>
       <c r="AR41">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AS41">
         <v>980</v>
       </c>
       <c r="AT41">
-        <v>5.8</v>
+        <v>21</v>
       </c>
       <c r="AU41">
         <v>980</v>
       </c>
       <c r="AV41">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AW41">
         <v>980</v>
       </c>
       <c r="AX41">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AY41">
         <v>980</v>
       </c>
       <c r="AZ41">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BA41">
         <v>55</v>
       </c>
       <c r="BB41">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="BC41">
         <v>980</v>
@@ -9071,157 +9071,157 @@
         <v>196</v>
       </c>
       <c r="F42">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="G42">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="H42">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="I42">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J42">
-        <v>2.34</v>
+        <v>3.6</v>
       </c>
       <c r="K42">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L42">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="M42">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="N42">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="O42">
+        <v>2.3</v>
+      </c>
+      <c r="P42">
+        <v>2.02</v>
+      </c>
+      <c r="Q42">
+        <v>2.18</v>
+      </c>
+      <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
+        <v>1.99</v>
+      </c>
+      <c r="T42">
+        <v>10</v>
+      </c>
+      <c r="U42">
+        <v>12.5</v>
+      </c>
+      <c r="V42">
+        <v>5.1</v>
+      </c>
+      <c r="W42">
+        <v>21</v>
+      </c>
+      <c r="X42">
+        <v>5.8</v>
+      </c>
+      <c r="Y42">
+        <v>55</v>
+      </c>
+      <c r="Z42">
+        <v>6.2</v>
+      </c>
+      <c r="AA42">
+        <v>180</v>
+      </c>
+      <c r="AB42">
+        <v>6.6</v>
+      </c>
+      <c r="AC42">
+        <v>7.8</v>
+      </c>
+      <c r="AD42">
+        <v>7.6</v>
+      </c>
+      <c r="AE42">
+        <v>9</v>
+      </c>
+      <c r="AF42">
+        <v>16</v>
+      </c>
+      <c r="AG42">
+        <v>26</v>
+      </c>
+      <c r="AH42">
+        <v>6</v>
+      </c>
+      <c r="AI42">
+        <v>110</v>
+      </c>
+      <c r="AJ42">
+        <v>8.6</v>
+      </c>
+      <c r="AK42">
+        <v>10.5</v>
+      </c>
+      <c r="AL42">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM42">
+        <v>10.5</v>
+      </c>
+      <c r="AN42">
+        <v>17.5</v>
+      </c>
+      <c r="AO42">
+        <v>29</v>
+      </c>
+      <c r="AP42">
+        <v>6.2</v>
+      </c>
+      <c r="AQ42">
+        <v>120</v>
+      </c>
+      <c r="AR42">
+        <v>15</v>
+      </c>
+      <c r="AS42">
+        <v>22</v>
+      </c>
+      <c r="AT42">
+        <v>5.3</v>
+      </c>
+      <c r="AU42">
+        <v>25</v>
+      </c>
+      <c r="AV42">
+        <v>5.8</v>
+      </c>
+      <c r="AW42">
+        <v>55</v>
+      </c>
+      <c r="AX42">
+        <v>6.2</v>
+      </c>
+      <c r="AY42">
+        <v>200</v>
+      </c>
+      <c r="AZ42">
         <v>4.6</v>
       </c>
-      <c r="P42">
-        <v>1.14</v>
-      </c>
-      <c r="Q42">
-        <v>1000</v>
-      </c>
-      <c r="R42">
-        <v>1.14</v>
-      </c>
-      <c r="S42">
-        <v>1000</v>
-      </c>
-      <c r="T42">
-        <v>1.49</v>
-      </c>
-      <c r="U42">
-        <v>1000</v>
-      </c>
-      <c r="V42">
-        <v>1.01</v>
-      </c>
-      <c r="W42">
-        <v>1000</v>
-      </c>
-      <c r="X42">
-        <v>1.01</v>
-      </c>
-      <c r="Y42">
-        <v>1000</v>
-      </c>
-      <c r="Z42">
-        <v>1.01</v>
-      </c>
-      <c r="AA42">
-        <v>1000</v>
-      </c>
-      <c r="AB42">
-        <v>1.01</v>
-      </c>
-      <c r="AC42">
-        <v>1000</v>
-      </c>
-      <c r="AD42">
-        <v>1.01</v>
-      </c>
-      <c r="AE42">
-        <v>1000</v>
-      </c>
-      <c r="AF42">
-        <v>1.01</v>
-      </c>
-      <c r="AG42">
-        <v>1000</v>
-      </c>
-      <c r="AH42">
-        <v>1.01</v>
-      </c>
-      <c r="AI42">
-        <v>1000</v>
-      </c>
-      <c r="AJ42">
-        <v>1.01</v>
-      </c>
-      <c r="AK42">
-        <v>1000</v>
-      </c>
-      <c r="AL42">
-        <v>1.01</v>
-      </c>
-      <c r="AM42">
-        <v>1000</v>
-      </c>
-      <c r="AN42">
-        <v>4.2</v>
-      </c>
-      <c r="AO42">
-        <v>1000</v>
-      </c>
-      <c r="AP42">
-        <v>1.01</v>
-      </c>
-      <c r="AQ42">
-        <v>1000</v>
-      </c>
-      <c r="AR42">
-        <v>1.01</v>
-      </c>
-      <c r="AS42">
-        <v>1000</v>
-      </c>
-      <c r="AT42">
-        <v>1.01</v>
-      </c>
-      <c r="AU42">
-        <v>1000</v>
-      </c>
-      <c r="AV42">
-        <v>1.01</v>
-      </c>
-      <c r="AW42">
-        <v>1000</v>
-      </c>
-      <c r="AX42">
-        <v>1.01</v>
-      </c>
-      <c r="AY42">
-        <v>1000</v>
-      </c>
-      <c r="AZ42">
-        <v>1.01</v>
-      </c>
       <c r="BA42">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="BB42">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BC42">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="BD42">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="BE42">
         <v>1000</v>
@@ -9268,16 +9268,16 @@
         <v>197</v>
       </c>
       <c r="F43">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G43">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I43">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J43">
         <v>3.75</v>
@@ -9286,19 +9286,19 @@
         <v>4</v>
       </c>
       <c r="L43">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="M43">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="N43">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O43">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="P43">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q43">
         <v>2.72</v>
@@ -9307,13 +9307,13 @@
         <v>1.58</v>
       </c>
       <c r="S43">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T43">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U43">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="V43">
         <v>15.5</v>
@@ -9322,22 +9322,22 @@
         <v>17</v>
       </c>
       <c r="X43">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Y43">
         <v>60</v>
       </c>
       <c r="Z43">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA43">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB43">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC43">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AD43">
         <v>8.199999999999999</v>
@@ -9346,19 +9346,19 @@
         <v>9</v>
       </c>
       <c r="AF43">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG43">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI43">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ43">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AK43">
         <v>8</v>
@@ -9370,28 +9370,28 @@
         <v>11</v>
       </c>
       <c r="AN43">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AO43">
         <v>34</v>
       </c>
       <c r="AP43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ43">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AR43">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AS43">
         <v>16</v>
       </c>
       <c r="AT43">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AU43">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV43">
         <v>38</v>
@@ -9400,25 +9400,25 @@
         <v>65</v>
       </c>
       <c r="AX43">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AY43">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="AZ43">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BA43">
+        <v>16.5</v>
+      </c>
+      <c r="BB43">
         <v>15.5</v>
       </c>
-      <c r="BB43">
-        <v>23</v>
-      </c>
       <c r="BC43">
         <v>980</v>
       </c>
       <c r="BD43">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="BE43">
         <v>1000</v>
@@ -9465,79 +9465,79 @@
         <v>198</v>
       </c>
       <c r="F44">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G44">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H44">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I44">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J44">
         <v>3.1</v>
       </c>
       <c r="K44">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L44">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M44">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="N44">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O44">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="P44">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q44">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="R44">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S44">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T44">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="U44">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="V44">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W44">
         <v>12</v>
       </c>
       <c r="X44">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y44">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z44">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="AA44">
         <v>170</v>
       </c>
       <c r="AB44">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AC44">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD44">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE44">
         <v>7.6</v>
@@ -9546,37 +9546,37 @@
         <v>19</v>
       </c>
       <c r="AG44">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH44">
-        <v>5.2</v>
+        <v>8.4</v>
       </c>
       <c r="AI44">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ44">
         <v>9.6</v>
       </c>
       <c r="AK44">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AL44">
         <v>10.5</v>
       </c>
       <c r="AM44">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN44">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="AO44">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AP44">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="AQ44">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AR44">
         <v>22</v>
@@ -9585,37 +9585,37 @@
         <v>32</v>
       </c>
       <c r="AT44">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="AU44">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AV44">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW44">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AX44">
-        <v>5.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY44">
         <v>980</v>
       </c>
       <c r="AZ44">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="BA44">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BB44">
-        <v>5.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC44">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="BD44">
-        <v>5.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE44">
         <v>1000</v>
@@ -9662,25 +9662,25 @@
         <v>199</v>
       </c>
       <c r="F45">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G45">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H45">
         <v>2.38</v>
       </c>
       <c r="I45">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J45">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K45">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L45">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="M45">
         <v>1.86</v>
@@ -9689,7 +9689,7 @@
         <v>2.16</v>
       </c>
       <c r="O45">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="P45">
         <v>1.84</v>
@@ -9746,7 +9746,7 @@
         <v>13</v>
       </c>
       <c r="AH45">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="AI45">
         <v>32</v>
